--- a/session_2/Assignment_2_backpropagation.xlsx
+++ b/session_2/Assignment_2_backpropagation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t xml:space="preserve">Targets</t>
   </si>
@@ -300,6 +300,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">dE_t/da_h2</t>
     </r>
@@ -308,6 +309,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> = d(E1+E2)/da_h1 = </t>
     </r>
@@ -317,6 +319,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">dE1/da_h1</t>
     </r>
@@ -325,6 +328,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> + </t>
     </r>
@@ -334,6 +338,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">dE2/da_h1</t>
     </r>
@@ -462,10 +467,100 @@
     <t xml:space="preserve">a_h2 = sigmoid(h2)= 1/(1 + exp(-h2))</t>
   </si>
   <si>
-    <t xml:space="preserve">dE_t/dw1 = (dE_t/da_h1) * (a_h1) * (1 - a_h1) * i1</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dE_t/dw1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = (dE_t/da_h1) * (a_h1) * (1 - a_h1) * i1</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">o1 = w5 * a_h1 + w6 * a_h2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dE_t/dw2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  = (dE_t/da_h1) * (a_h1) * (1 - a_h1) * i2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">o1 = w7 * a_h1 + w8 * a_h2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dE_t/dw3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  = (dE_t/da_h2) * (a_h2) * (1 - a_h2) * i1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">a_o1 = sigmoid(o1) = 1/(1 + exp(-o1))</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dE_t/dw4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  = (dE_t/da_h2) * (a_h2) * (1 - a_h2) * i2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">a_o2 = sigmoid(o2) = 1/(1 + exp(-02))</t>
   </si>
   <si>
     <r>
@@ -485,28 +580,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> = ((</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(a_o1 - t1) * (a_o1) * (1 - a_o1) * w5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">) + ((a_o2 - t2) * (a_o2) * (1 - a_o2) * w7)) * (a_h1) * (1 - a_h1) * i1</t>
+      <t xml:space="preserve"> = (((a_o1 - t1) * (a_o1) * (1 - a_o1) * w5) + ((a_o2 - t2) * (a_o2) * (1 - a_o2) * w7)) * (a_h1) * (1 - a_h1) * i1</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">o1 = w7 * a_h1 + w8 * a_h2</t>
+    <t xml:space="preserve">E1 = (1/2) * (t1 – a_o1) ^ 2</t>
   </si>
   <si>
     <r>
@@ -530,7 +608,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">a_o1 = sigmoid(o1) = 1/(1 + exp(-o1))</t>
+    <t xml:space="preserve">E2 = (1/2) * (t2 – a_o2) ^ 2</t>
   </si>
   <si>
     <r>
@@ -554,7 +632,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">a_o2 = sigmoid(o2) = 1/(1 + exp(-02))</t>
+    <t xml:space="preserve">E_total = E1 + E2</t>
   </si>
   <si>
     <r>
@@ -576,15 +654,6 @@
       </rPr>
       <t xml:space="preserve">  = ((a_o1 - t1) * (a_o1) * (1 - a_o1) * w6 + (a_o2 - t2) * (a_o2) * (1 - a_o2) * w8) * (a_h2) * (1 - a_h2) * i2</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">E1 = (1/2) * (t1 – a_o1) ^ 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2 = (1/2) * (t2 – a_o2) ^ 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_total = E1 + E2</t>
   </si>
   <si>
     <t xml:space="preserve">lrng_rate</t>
@@ -690,11 +759,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -712,23 +782,11 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -740,7 +798,12 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -791,8 +854,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -800,19 +867,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -888,23 +947,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.104225264079005"/>
-          <c:y val="0.0665629514390488"/>
-          <c:w val="0.751109444340271"/>
-          <c:h val="0.84964996110679"/>
-        </c:manualLayout>
-      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -934,13 +982,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -1202,12 +1244,12 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="51799229"/>
-        <c:axId val="36884491"/>
+        <c:marker val="0"/>
+        <c:axId val="77984622"/>
+        <c:axId val="7153234"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51799229"/>
+        <c:axId val="77984622"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,14 +1277,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36884491"/>
+        <c:crossAx val="7153234"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36884491"/>
+        <c:axId val="7153234"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1321,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51799229"/>
+        <c:crossAx val="77984622"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1338,9 +1380,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>411120</xdr:colOff>
+      <xdr:colOff>410760</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1350,7 +1392,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1620720" y="799920"/>
-          <a:ext cx="592920" cy="592920"/>
+          <a:ext cx="592560" cy="592560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1373,7 +1415,11 @@
       <xdr:txBody>
         <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1397,9 +1443,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>424440</xdr:colOff>
+      <xdr:colOff>424080</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1409,7 +1455,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1634040" y="1773360"/>
-          <a:ext cx="592920" cy="592920"/>
+          <a:ext cx="592560" cy="592560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1432,7 +1478,11 @@
       <xdr:txBody>
         <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1456,9 +1506,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>87840</xdr:colOff>
+      <xdr:colOff>87480</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1467,8 +1517,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3247560" y="806760"/>
-          <a:ext cx="592920" cy="592920"/>
+          <a:off x="3248280" y="806760"/>
+          <a:ext cx="592560" cy="592560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1491,7 +1541,11 @@
       <xdr:txBody>
         <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1515,9 +1569,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>84960</xdr:colOff>
+      <xdr:colOff>84600</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1526,8 +1580,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3244680" y="1775520"/>
-          <a:ext cx="592920" cy="592920"/>
+          <a:off x="3245400" y="1775520"/>
+          <a:ext cx="592560" cy="592560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1550,7 +1604,11 @@
       <xdr:txBody>
         <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1574,9 +1632,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>80640</xdr:colOff>
+      <xdr:colOff>80280</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1585,8 +1643,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3848040" y="813240"/>
-          <a:ext cx="592920" cy="592920"/>
+          <a:off x="3848760" y="813240"/>
+          <a:ext cx="592560" cy="592560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1609,7 +1667,11 @@
       <xdr:txBody>
         <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1633,9 +1695,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>73800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1644,8 +1706,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3841560" y="1788480"/>
-          <a:ext cx="592920" cy="592920"/>
+          <a:off x="3842280" y="1788480"/>
+          <a:ext cx="592560" cy="592560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1668,7 +1730,11 @@
       <xdr:txBody>
         <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1692,9 +1758,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>412200</xdr:colOff>
+      <xdr:colOff>411840</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1703,8 +1769,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5375520" y="806760"/>
-          <a:ext cx="592920" cy="592920"/>
+          <a:off x="5376240" y="806760"/>
+          <a:ext cx="592200" cy="592560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1727,7 +1793,11 @@
       <xdr:txBody>
         <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1751,9 +1821,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>528840</xdr:colOff>
+      <xdr:colOff>528480</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1762,8 +1832,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5972040" y="813240"/>
-          <a:ext cx="592920" cy="592920"/>
+          <a:off x="5972400" y="813240"/>
+          <a:ext cx="593640" cy="592560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1786,7 +1856,11 @@
       <xdr:txBody>
         <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1810,9 +1884,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>431640</xdr:colOff>
+      <xdr:colOff>431280</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1821,8 +1895,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5394960" y="1782360"/>
-          <a:ext cx="592920" cy="592920"/>
+          <a:off x="5395680" y="1782360"/>
+          <a:ext cx="592200" cy="592560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1845,7 +1919,11 @@
       <xdr:txBody>
         <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1869,9 +1947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>548280</xdr:colOff>
+      <xdr:colOff>547920</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1880,8 +1958,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5991480" y="1782000"/>
-          <a:ext cx="592920" cy="592920"/>
+          <a:off x="5991840" y="1782000"/>
+          <a:ext cx="593640" cy="592560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1904,7 +1982,11 @@
       <xdr:txBody>
         <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1928,9 +2010,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>430920</xdr:colOff>
+      <xdr:colOff>430560</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1939,8 +2021,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7571520" y="1158120"/>
-          <a:ext cx="1002600" cy="929160"/>
+          <a:off x="7572600" y="1158120"/>
+          <a:ext cx="1002240" cy="928800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1963,7 +2045,11 @@
       <xdr:txBody>
         <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1999,7 +2085,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2215440" y="1118520"/>
-          <a:ext cx="1002960" cy="0"/>
+          <a:ext cx="1003680" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2040,7 +2126,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2241720" y="2107080"/>
-          <a:ext cx="1002960" cy="0"/>
+          <a:ext cx="1003680" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2080,7 +2166,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4430880" y="1137960"/>
+          <a:off x="4431600" y="1137960"/>
           <a:ext cx="930960" cy="6480"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2121,7 +2207,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4424400" y="2113200"/>
+          <a:off x="4425120" y="2113200"/>
           <a:ext cx="1002960" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2162,8 +2248,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6567840" y="1144440"/>
-          <a:ext cx="1009800" cy="461880"/>
+          <a:off x="6569280" y="1144440"/>
+          <a:ext cx="1009440" cy="461880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2203,8 +2289,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6594120" y="1625760"/>
-          <a:ext cx="963720" cy="480960"/>
+          <a:off x="6595560" y="1625760"/>
+          <a:ext cx="963360" cy="480960"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2245,7 +2331,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2208960" y="1125000"/>
-          <a:ext cx="1029240" cy="968760"/>
+          <a:ext cx="1029960" cy="968760"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2286,7 +2372,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="2261520" y="1137960"/>
-          <a:ext cx="950400" cy="929880"/>
+          <a:ext cx="951120" cy="929880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2326,7 +2412,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4430880" y="1144440"/>
+          <a:off x="4431600" y="1144440"/>
           <a:ext cx="963720" cy="949320"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2367,7 +2453,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4438080" y="1171080"/>
+          <a:off x="4438800" y="1171080"/>
           <a:ext cx="950400" cy="929880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2397,25 +2483,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>448920</xdr:colOff>
+      <xdr:colOff>448560</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Freeform 1"/>
+        <xdr:cNvPr id="21" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3506760" y="192240"/>
-          <a:ext cx="695160" cy="646560"/>
+          <a:off x="3507480" y="422640"/>
+          <a:ext cx="694440" cy="415440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="1931" h="1796">
               <a:moveTo>
@@ -2435,6 +2521,7 @@
             </a:path>
           </a:pathLst>
         </a:custGeom>
+        <a:noFill/>
         <a:ln>
           <a:solidFill>
             <a:srgbClr val="000000"/>
@@ -2442,6 +2529,12 @@
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2454,25 +2547,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Freeform 1"/>
+        <xdr:cNvPr id="22" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5630400" y="179640"/>
-          <a:ext cx="695160" cy="646560"/>
+          <a:off x="5630760" y="410040"/>
+          <a:ext cx="695520" cy="415440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="1931" h="1796">
               <a:moveTo>
@@ -2492,6 +2585,7 @@
             </a:path>
           </a:pathLst>
         </a:custGeom>
+        <a:noFill/>
         <a:ln>
           <a:solidFill>
             <a:srgbClr val="000000"/>
@@ -2499,6 +2593,12 @@
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2511,25 +2611,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>308880</xdr:colOff>
+      <xdr:colOff>308520</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Freeform 1"/>
+        <xdr:cNvPr id="23" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5650200" y="2353680"/>
-          <a:ext cx="695160" cy="394920"/>
+          <a:off x="5650560" y="2353680"/>
+          <a:ext cx="695520" cy="253440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="1931" h="1097">
               <a:moveTo>
@@ -2549,6 +2649,7 @@
             </a:path>
           </a:pathLst>
         </a:custGeom>
+        <a:noFill/>
         <a:ln>
           <a:solidFill>
             <a:srgbClr val="000000"/>
@@ -2556,6 +2657,12 @@
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2568,25 +2675,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>416520</xdr:colOff>
+      <xdr:colOff>416160</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Freeform 1"/>
+        <xdr:cNvPr id="24" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3474360" y="2367720"/>
-          <a:ext cx="695160" cy="394920"/>
+          <a:off x="3475080" y="2367720"/>
+          <a:ext cx="694440" cy="253440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="1931" h="1097">
               <a:moveTo>
@@ -2606,6 +2713,7 @@
             </a:path>
           </a:pathLst>
         </a:custGeom>
+        <a:noFill/>
         <a:ln>
           <a:solidFill>
             <a:srgbClr val="000000"/>
@@ -2613,6 +2721,12 @@
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2625,19 +2739,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>618480</xdr:colOff>
+      <xdr:colOff>618120</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="25" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2445120" y="949320"/>
-          <a:ext cx="642240" cy="337320"/>
+          <a:ext cx="641880" cy="336960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2647,9 +2761,20 @@
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -2673,19 +2798,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>217440</xdr:colOff>
+      <xdr:colOff>217080</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="26" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2720160" y="1352880"/>
-          <a:ext cx="642240" cy="337320"/>
+          <a:ext cx="642600" cy="336960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2695,9 +2820,20 @@
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -2721,19 +2857,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>177840</xdr:colOff>
+      <xdr:colOff>177480</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="27" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2680560" y="1690920"/>
-          <a:ext cx="642240" cy="337320"/>
+          <a:ext cx="642600" cy="336960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2743,9 +2879,20 @@
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -2769,19 +2916,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>578880</xdr:colOff>
+      <xdr:colOff>578520</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="28" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2405520" y="2165760"/>
-          <a:ext cx="642240" cy="337320"/>
+          <a:ext cx="641880" cy="336960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2791,9 +2938,20 @@
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -2817,19 +2975,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>236880</xdr:colOff>
+      <xdr:colOff>236520</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="29" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4542840" y="942840"/>
-          <a:ext cx="642240" cy="337320"/>
+          <a:off x="4543560" y="942840"/>
+          <a:ext cx="641880" cy="336960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2839,20 +2997,25 @@
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>w5=0.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>4</a:t>
+            <a:t>w5=0.4</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2871,19 +3034,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>511920</xdr:colOff>
+      <xdr:colOff>511560</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="30" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4817880" y="1346400"/>
-          <a:ext cx="642240" cy="337320"/>
+          <a:off x="4818600" y="1346400"/>
+          <a:ext cx="641880" cy="336960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2893,26 +3056,36 @@
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>w6=0.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>45</a:t>
+            <a:t>w6=0.45</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
@@ -2930,19 +3103,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>472320</xdr:colOff>
+      <xdr:colOff>471960</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="31" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4778280" y="1684440"/>
-          <a:ext cx="642240" cy="337320"/>
+          <a:off x="4779000" y="1684440"/>
+          <a:ext cx="641880" cy="336960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2952,20 +3125,25 @@
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>w7=0.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>50</a:t>
+            <a:t>w7=0.50</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2984,19 +3162,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>197280</xdr:colOff>
+      <xdr:colOff>196920</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="32" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4503240" y="2159280"/>
-          <a:ext cx="642240" cy="337320"/>
+          <a:off x="4503960" y="2159280"/>
+          <a:ext cx="641880" cy="336960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3006,38 +3184,36 @@
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>w</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>8=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>0.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>55</a:t>
+            <a:t>w8=0.55</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
@@ -3055,19 +3231,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>12960</xdr:colOff>
+      <xdr:colOff>12600</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="33" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7013880" y="1196640"/>
-          <a:ext cx="642240" cy="337320"/>
+          <a:off x="7015320" y="1196640"/>
+          <a:ext cx="641880" cy="336960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3077,9 +3253,20 @@
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -3091,6 +3278,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
@@ -3108,19 +3300,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="34" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7079040" y="1879200"/>
-          <a:ext cx="642240" cy="337320"/>
+          <a:off x="7080480" y="1879200"/>
+          <a:ext cx="641880" cy="336960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3130,9 +3322,20 @@
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -3144,6 +3347,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
@@ -3154,16 +3362,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>462600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>105120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>153720</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>10800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3171,8 +3379,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5410800" y="3115800"/>
-        <a:ext cx="4365360" cy="2221560"/>
+        <a:off x="5661720" y="2683440"/>
+        <a:ext cx="4453560" cy="2504880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3192,8 +3400,8 @@
   </sheetPr>
   <dimension ref="A2:AE112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34:AE34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3287,7 +3495,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T15" s="3" t="s">
+      <c r="T15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3339,15 +3547,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="s">
         <v>24</v>
       </c>
@@ -3355,7 +3563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
@@ -3363,7 +3571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -3371,7 +3579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="s">
         <v>30</v>
       </c>
@@ -3379,123 +3587,131 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T29" s="2"/>
+      <c r="T29" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G32" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="I34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="J34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="K34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="L34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P34" s="4" t="s">
+      <c r="M34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="N34" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R34" s="4" t="s">
+      <c r="O34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S34" s="4" t="s">
+      <c r="P34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="T34" s="4" t="s">
+      <c r="Q34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U34" s="4" t="s">
+      <c r="R34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="V34" s="4" t="s">
+      <c r="S34" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W34" s="4" t="s">
+      <c r="T34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="X34" s="4" t="s">
+      <c r="U34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Y34" s="4" t="s">
+      <c r="V34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Z34" s="4" t="s">
+      <c r="W34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AA34" s="4" t="s">
+      <c r="X34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AB34" s="4" t="s">
+      <c r="Y34" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AC34" s="4" t="s">
+      <c r="Z34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AD34" s="4" t="s">
+      <c r="AA34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AE34" s="4" t="s">
+      <c r="AB34" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="AC34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE34" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3527,16 +3743,16 @@
         <f aca="false">(E35*C35 + F35 * D35)</f>
         <v>0.0275</v>
       </c>
-      <c r="J35" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I35))</f>
+      <c r="J35" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I35))</f>
         <v>0.506874566764534</v>
       </c>
       <c r="K35" s="1" t="n">
         <f aca="false">(G35 * C35 + H35 * D35)</f>
         <v>0.0425</v>
       </c>
-      <c r="L35" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K35))</f>
+      <c r="L35" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K35))</f>
         <v>0.510623401004964</v>
       </c>
       <c r="M35" s="1" t="n">
@@ -3556,7 +3772,7 @@
         <v>0.432530357158047</v>
       </c>
       <c r="R35" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q35))</f>
+        <f aca="false">1/(1+EXP(-Q35))</f>
         <v>0.606477732206728</v>
       </c>
       <c r="S35" s="1" t="n">
@@ -3564,11 +3780,11 @@
         <v>0.534280153934997</v>
       </c>
       <c r="T35" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S35))</f>
+        <f aca="false">1/(1+EXP(-S35))</f>
         <v>0.630480835450635</v>
       </c>
       <c r="U35" s="1" t="n">
-        <f aca="false"> 1/2 * (A35 - R35) ^ 2</f>
+        <f aca="false">1/2 * (A35 - R35) ^ 2</f>
         <v>0.177892842509241</v>
       </c>
       <c r="V35" s="1" t="n">
@@ -3576,7 +3792,7 @@
         <v>0.0646270148391368</v>
       </c>
       <c r="W35" s="1" t="n">
-        <f aca="false"> (U35+V35)</f>
+        <f aca="false">(U35+V35)</f>
         <v>0.242519857348377</v>
       </c>
       <c r="X35" s="1" t="n">
@@ -3645,16 +3861,16 @@
         <f aca="false">(E36*C36 + F36 * D36)</f>
         <v>0.0274764680416325</v>
       </c>
-      <c r="J36" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I36))</f>
+      <c r="J36" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I36))</f>
         <v>0.506868684886104</v>
       </c>
       <c r="K36" s="1" t="n">
         <f aca="false">(G36 * C36 + H36 * D36)</f>
         <v>0.042471898317178</v>
       </c>
-      <c r="L36" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K36))</f>
+      <c r="L36" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K36))</f>
         <v>0.510616378753624</v>
       </c>
       <c r="M36" s="1" t="n">
@@ -3678,7 +3894,7 @@
         <v>0.395679221528063</v>
       </c>
       <c r="R36" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q36))</f>
+        <f aca="false">1/(1+EXP(-Q36))</f>
         <v>0.597649105422816</v>
       </c>
       <c r="S36" s="1" t="n">
@@ -3686,11 +3902,11 @@
         <v>0.55595230848741</v>
       </c>
       <c r="T36" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S36))</f>
+        <f aca="false">1/(1+EXP(-S36))</f>
         <v>0.635515466285559</v>
       </c>
       <c r="U36" s="1" t="n">
-        <f aca="false"> 1/2 * (A36 - R36) ^ 2</f>
+        <f aca="false">1/2 * (A36 - R36) ^ 2</f>
         <v>0.172665735552118</v>
       </c>
       <c r="V36" s="1" t="n">
@@ -3698,7 +3914,7 @@
         <v>0.0628296423213724</v>
       </c>
       <c r="W36" s="1" t="n">
-        <f aca="false"> (U36+V36)</f>
+        <f aca="false">(U36+V36)</f>
         <v>0.23549537787349</v>
       </c>
       <c r="X36" s="1" t="n">
@@ -3711,7 +3927,7 @@
       </c>
       <c r="Z36" s="1" t="n">
         <f aca="false">((R36-A36)*R36*(1-R36)*N36+(T36-B36)*T36*(1-T36)*P36)*L36*(1-L36)*C36</f>
-        <v>0.000144134545404509</v>
+        <v>0.000144134545404508</v>
       </c>
       <c r="AA36" s="1" t="n">
         <f aca="false">((R36-A36)*R36*(1-R36)*N36+(T36-B36)*T36*(1-T36)*P36)*L36*(1-L36)*D36</f>
@@ -3767,16 +3983,16 @@
         <f aca="false">(E37*C37 + F37 * D37)</f>
         <v>0.0274629913957667</v>
       </c>
-      <c r="J37" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I37))</f>
+      <c r="J37" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I37))</f>
         <v>0.506865316360138</v>
       </c>
       <c r="K37" s="1" t="n">
         <f aca="false">(G37 * C37 + H37 * D37)</f>
         <v>0.0424538814990024</v>
       </c>
-      <c r="L37" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K37))</f>
+      <c r="L37" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K37))</f>
         <v>0.51061187657885</v>
       </c>
       <c r="M37" s="1" t="n">
@@ -3800,7 +4016,7 @@
         <v>0.359102513239921</v>
       </c>
       <c r="R37" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q37))</f>
+        <f aca="false">1/(1+EXP(-Q37))</f>
         <v>0.588823160473872</v>
       </c>
       <c r="S37" s="1" t="n">
@@ -3808,11 +4024,11 @@
         <v>0.577200045702365</v>
       </c>
       <c r="T37" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S37))</f>
+        <f aca="false">1/(1+EXP(-S37))</f>
         <v>0.640422882733361</v>
       </c>
       <c r="U37" s="1" t="n">
-        <f aca="false"> 1/2 * (A37 - R37) ^ 2</f>
+        <f aca="false">1/2 * (A37 - R37) ^ 2</f>
         <v>0.167518125550481</v>
       </c>
       <c r="V37" s="1" t="n">
@@ -3820,7 +4036,7 @@
         <v>0.0611020804582267</v>
       </c>
       <c r="W37" s="1" t="n">
-        <f aca="false"> (U37+V37)</f>
+        <f aca="false">(U37+V37)</f>
         <v>0.228620206008707</v>
       </c>
       <c r="X37" s="1" t="n">
@@ -3829,11 +4045,11 @@
       </c>
       <c r="Y37" s="1" t="n">
         <f aca="false">(((R37-A37)*R37*(1-R37)*M37)+((T37-B37)*T37*(1-T37)*O37))*J37*(1-J37)*D37</f>
-        <v>5.86461392487311E-005</v>
+        <v>5.86461392487309E-005</v>
       </c>
       <c r="Z37" s="1" t="n">
         <f aca="false">((R37-A37)*R37*(1-R37)*N37+(T37-B37)*T37*(1-T37)*P37)*L37*(1-L37)*C37</f>
-        <v>6.53288389525536E-005</v>
+        <v>6.53288389525534E-005</v>
       </c>
       <c r="AA37" s="1" t="n">
         <f aca="false">((R37-A37)*R37*(1-R37)*N37+(T37-B37)*T37*(1-T37)*P37)*L37*(1-L37)*D37</f>
@@ -3889,16 +4105,16 @@
         <f aca="false">(E38*C38 + F38 * D38)</f>
         <v>0.0274593260120636</v>
       </c>
-      <c r="J38" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I38))</f>
+      <c r="J38" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I38))</f>
         <v>0.506864400186948</v>
       </c>
       <c r="K38" s="1" t="n">
         <f aca="false">(G38 * C38 + H38 * D38)</f>
         <v>0.0424457153941334</v>
       </c>
-      <c r="L38" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K38))</f>
+      <c r="L38" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K38))</f>
         <v>0.510609835972056</v>
       </c>
       <c r="M38" s="1" t="n">
@@ -3922,7 +4138,7 @@
         <v>0.322830951722796</v>
       </c>
       <c r="R38" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q38))</f>
+        <f aca="false">1/(1+EXP(-Q38))</f>
         <v>0.580014021419825</v>
       </c>
       <c r="S38" s="1" t="n">
@@ -3930,11 +4146,11 @@
         <v>0.598033454483869</v>
       </c>
       <c r="T38" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S38))</f>
+        <f aca="false">1/(1+EXP(-S38))</f>
         <v>0.645206262838284</v>
       </c>
       <c r="U38" s="1" t="n">
-        <f aca="false"> 1/2 * (A38 - R38) ^ 2</f>
+        <f aca="false">1/2 * (A38 - R38) ^ 2</f>
         <v>0.1624579923076</v>
       </c>
       <c r="V38" s="1" t="n">
@@ -3942,7 +4158,7 @@
         <v>0.0594413605929713</v>
       </c>
       <c r="W38" s="1" t="n">
-        <f aca="false"> (U38+V38)</f>
+        <f aca="false">(U38+V38)</f>
         <v>0.221899352900572</v>
       </c>
       <c r="X38" s="1" t="n">
@@ -3951,15 +4167,15 @@
       </c>
       <c r="Y38" s="1" t="n">
         <f aca="false">(((R38-A38)*R38*(1-R38)*M38)+((T38-B38)*T38*(1-T38)*O38))*J38*(1-J38)*D38</f>
-        <v>-9.40999832797735E-005</v>
+        <v>-9.40999832797737E-005</v>
       </c>
       <c r="Z38" s="1" t="n">
         <f aca="false">((R38-A38)*R38*(1-R38)*N38+(T38-B38)*T38*(1-T38)*P38)*L38*(1-L38)*C38</f>
-        <v>-1.14340553421903E-005</v>
+        <v>-1.14340553421906E-005</v>
       </c>
       <c r="AA38" s="1" t="n">
         <f aca="false">((R38-A38)*R38*(1-R38)*N38+(T38-B38)*T38*(1-T38)*P38)*L38*(1-L38)*D38</f>
-        <v>-2.28681106843805E-005</v>
+        <v>-2.28681106843812E-005</v>
       </c>
       <c r="AB38" s="1" t="n">
         <f aca="false">(R38-A38)*R38*(1 - R38)*J38</f>
@@ -4011,16 +4227,16 @@
         <f aca="false">(E39*C39 + F39 * D39)</f>
         <v>0.0274652072610186</v>
       </c>
-      <c r="J39" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I39))</f>
+      <c r="J39" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I39))</f>
         <v>0.506865870222003</v>
       </c>
       <c r="K39" s="1" t="n">
         <f aca="false">(G39 * C39 + H39 * D39)</f>
         <v>0.0424471446510511</v>
       </c>
-      <c r="L39" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K39))</f>
+      <c r="L39" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K39))</f>
         <v>0.510610193125391</v>
       </c>
       <c r="M39" s="1" t="n">
@@ -4044,7 +4260,7 @@
         <v>0.286893633647182</v>
       </c>
       <c r="R39" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q39))</f>
+        <f aca="false">1/(1+EXP(-Q39))</f>
         <v>0.57123547350968</v>
       </c>
       <c r="S39" s="1" t="n">
@@ -4052,11 +4268,11 @@
         <v>0.618462573227803</v>
       </c>
       <c r="T39" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S39))</f>
+        <f aca="false">1/(1+EXP(-S39))</f>
         <v>0.649868804152723</v>
       </c>
       <c r="U39" s="1" t="n">
-        <f aca="false"> 1/2 * (A39 - R39) ^ 2</f>
+        <f aca="false">1/2 * (A39 - R39) ^ 2</f>
         <v>0.157492628362818</v>
       </c>
       <c r="V39" s="1" t="n">
@@ -4064,7 +4280,7 @@
         <v>0.0578446151942492</v>
       </c>
       <c r="W39" s="1" t="n">
-        <f aca="false"> (U39+V39)</f>
+        <f aca="false">(U39+V39)</f>
         <v>0.215337243557067</v>
       </c>
       <c r="X39" s="1" t="n">
@@ -4073,15 +4289,15 @@
       </c>
       <c r="Y39" s="1" t="n">
         <f aca="false">(((R39-A39)*R39*(1-R39)*M39)+((T39-B39)*T39*(1-T39)*O39))*J39*(1-J39)*D39</f>
-        <v>-0.000242309972753542</v>
+        <v>-0.000242309972753543</v>
       </c>
       <c r="Z39" s="1" t="n">
         <f aca="false">((R39-A39)*R39*(1-R39)*N39+(T39-B39)*T39*(1-T39)*P39)*L39*(1-L39)*C39</f>
-        <v>-8.59977837089744E-005</v>
+        <v>-8.59977837089748E-005</v>
       </c>
       <c r="AA39" s="1" t="n">
         <f aca="false">((R39-A39)*R39*(1-R39)*N39+(T39-B39)*T39*(1-T39)*P39)*L39*(1-L39)*D39</f>
-        <v>-0.000171995567417949</v>
+        <v>-0.00017199556741795</v>
       </c>
       <c r="AB39" s="1" t="n">
         <f aca="false">(R39-A39)*R39*(1 - R39)*J39</f>
@@ -4133,16 +4349,16 @@
         <f aca="false">(E40*C40 + F40 * D40)</f>
         <v>0.0274803516343157</v>
       </c>
-      <c r="J40" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I40))</f>
+      <c r="J40" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I40))</f>
         <v>0.506869655601025</v>
       </c>
       <c r="K40" s="1" t="n">
         <f aca="false">(G40 * C40 + H40 * D40)</f>
         <v>0.0424578943740148</v>
       </c>
-      <c r="L40" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K40))</f>
+      <c r="L40" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K40))</f>
         <v>0.510612879345662</v>
       </c>
       <c r="M40" s="1" t="n">
@@ -4151,7 +4367,7 @@
       </c>
       <c r="N40" s="1" t="n">
         <f aca="false">N39- $H$32*AC39</f>
-        <v>0.271254362876523</v>
+        <v>0.271254362876522</v>
       </c>
       <c r="O40" s="1" t="n">
         <f aca="false">O39- $H$32*AD39</f>
@@ -4159,14 +4375,14 @@
       </c>
       <c r="P40" s="1" t="n">
         <f aca="false">P39- $H$32*AE39</f>
-        <v>0.652810425593925</v>
+        <v>0.652810425593926</v>
       </c>
       <c r="Q40" s="1" t="n">
         <f aca="false">(M40*J40 + N40 * L40)</f>
         <v>0.251317869097494</v>
       </c>
       <c r="R40" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q40))</f>
+        <f aca="false">1/(1+EXP(-Q40))</f>
         <v>0.562500846763275</v>
       </c>
       <c r="S40" s="1" t="n">
@@ -4174,11 +4390,11 @@
         <v>0.638497357879404</v>
       </c>
       <c r="T40" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S40))</f>
+        <f aca="false">1/(1+EXP(-S40))</f>
         <v>0.654413707359728</v>
       </c>
       <c r="U40" s="1" t="n">
-        <f aca="false"> 1/2 * (A40 - R40) ^ 2</f>
+        <f aca="false">1/2 * (A40 - R40) ^ 2</f>
         <v>0.152628592837068</v>
       </c>
       <c r="V40" s="1" t="n">
@@ -4186,7 +4402,7 @@
         <v>0.0563090799040212</v>
       </c>
       <c r="W40" s="1" t="n">
-        <f aca="false"> (U40+V40)</f>
+        <f aca="false">(U40+V40)</f>
         <v>0.208937672741089</v>
       </c>
       <c r="X40" s="1" t="n">
@@ -4195,11 +4411,11 @@
       </c>
       <c r="Y40" s="1" t="n">
         <f aca="false">(((R40-A40)*R40*(1-R40)*M40)+((T40-B40)*T40*(1-T40)*O40))*J40*(1-J40)*D40</f>
-        <v>-0.000385713015777209</v>
+        <v>-0.00038571301577721</v>
       </c>
       <c r="Z40" s="1" t="n">
         <f aca="false">((R40-A40)*R40*(1-R40)*N40+(T40-B40)*T40*(1-T40)*P40)*L40*(1-L40)*C40</f>
-        <v>-0.000158221350407709</v>
+        <v>-0.00015822135040771</v>
       </c>
       <c r="AA40" s="1" t="n">
         <f aca="false">((R40-A40)*R40*(1-R40)*N40+(T40-B40)*T40*(1-T40)*P40)*L40*(1-L40)*D40</f>
@@ -4255,16 +4471,16 @@
         <f aca="false">(E41*C41 + F41 * D41)</f>
         <v>0.0275044586978018</v>
       </c>
-      <c r="J41" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I41))</f>
+      <c r="J41" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I41))</f>
         <v>0.506875681228234</v>
       </c>
       <c r="K41" s="1" t="n">
         <f aca="false">(G41 * C41 + H41 * D41)</f>
         <v>0.0424776720428157</v>
       </c>
-      <c r="L41" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K41))</f>
+      <c r="L41" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K41))</f>
         <v>0.510617821534203</v>
       </c>
       <c r="M41" s="1" t="n">
@@ -4288,7 +4504,7 @@
         <v>0.216129045963757</v>
       </c>
       <c r="R41" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q41))</f>
+        <f aca="false">1/(1+EXP(-Q41))</f>
         <v>0.553822910827586</v>
       </c>
       <c r="S41" s="1" t="n">
@@ -4296,11 +4512,11 @@
         <v>0.658147654544165</v>
       </c>
       <c r="T41" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S41))</f>
+        <f aca="false">1/(1+EXP(-S41))</f>
         <v>0.658844162069268</v>
       </c>
       <c r="U41" s="1" t="n">
-        <f aca="false"> 1/2 * (A41 - R41) ^ 2</f>
+        <f aca="false">1/2 * (A41 - R41) ^ 2</f>
         <v>0.147871679170494</v>
       </c>
       <c r="V41" s="1" t="n">
@@ -4308,7 +4524,7 @@
         <v>0.0548320944978025</v>
       </c>
       <c r="W41" s="1" t="n">
-        <f aca="false"> (U41+V41)</f>
+        <f aca="false">(U41+V41)</f>
         <v>0.202703773668297</v>
       </c>
       <c r="X41" s="1" t="n">
@@ -4325,7 +4541,7 @@
       </c>
       <c r="AA41" s="1" t="n">
         <f aca="false">((R41-A41)*R41*(1-R41)*N41+(T41-B41)*T41*(1-T41)*P41)*L41*(1-L41)*D41</f>
-        <v>-0.000455961577284892</v>
+        <v>-0.000455961577284893</v>
       </c>
       <c r="AB41" s="1" t="n">
         <f aca="false">(R41-A41)*R41*(1 - R41)*J41</f>
@@ -4377,16 +4593,16 @@
         <f aca="false">(E42*C42 + F42 * D42)</f>
         <v>0.0275372132423029</v>
       </c>
-      <c r="J42" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I42))</f>
+      <c r="J42" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I42))</f>
         <v>0.506883868314044</v>
       </c>
       <c r="K42" s="1" t="n">
         <f aca="false">(G42 * C42 + H42 * D42)</f>
         <v>0.042506169641396</v>
       </c>
-      <c r="L42" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K42))</f>
+      <c r="L42" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K42))</f>
         <v>0.510624942718927</v>
       </c>
       <c r="M42" s="1" t="n">
@@ -4410,7 +4626,7 @@
         <v>0.181350523728305</v>
       </c>
       <c r="R42" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q42))</f>
+        <f aca="false">1/(1+EXP(-Q42))</f>
         <v>0.545213782846968</v>
       </c>
       <c r="S42" s="1" t="n">
@@ -4418,11 +4634,11 @@
         <v>0.677423176251197</v>
       </c>
       <c r="T42" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S42))</f>
-        <v>0.663163334600139</v>
+        <f aca="false">1/(1+EXP(-S42))</f>
+        <v>0.66316333460014</v>
       </c>
       <c r="U42" s="1" t="n">
-        <f aca="false"> 1/2 * (A42 - R42) ^ 2</f>
+        <f aca="false">1/2 * (A42 - R42) ^ 2</f>
         <v>0.143226896674681</v>
       </c>
       <c r="V42" s="1" t="n">
@@ -4430,7 +4646,7 @@
         <v>0.0534111029248502</v>
       </c>
       <c r="W42" s="1" t="n">
-        <f aca="false"> (U42+V42)</f>
+        <f aca="false">(U42+V42)</f>
         <v>0.196637999599531</v>
       </c>
       <c r="X42" s="1" t="n">
@@ -4499,16 +4715,16 @@
         <f aca="false">(E43*C43 + F43 * D43)</f>
         <v>0.027578287575258</v>
       </c>
-      <c r="J43" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I43))</f>
+      <c r="J43" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I43))</f>
         <v>0.506894134947962</v>
       </c>
       <c r="K43" s="1" t="n">
         <f aca="false">(G43 * C43 + H43 * D43)</f>
         <v>0.0425430659378939</v>
       </c>
-      <c r="L43" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K43))</f>
+      <c r="L43" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K43))</f>
         <v>0.510634162624235</v>
       </c>
       <c r="M43" s="1" t="n">
@@ -4532,7 +4748,7 @@
         <v>0.147003556979614</v>
       </c>
       <c r="R43" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q43))</f>
+        <f aca="false">1/(1+EXP(-Q43))</f>
         <v>0.536684849586697</v>
       </c>
       <c r="S43" s="1" t="n">
@@ -4540,11 +4756,11 @@
         <v>0.69633348347922</v>
       </c>
       <c r="T43" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S43))</f>
+        <f aca="false">1/(1+EXP(-S43))</f>
         <v>0.667374357563728</v>
       </c>
       <c r="U43" s="1" t="n">
-        <f aca="false"> 1/2 * (A43 - R43) ^ 2</f>
+        <f aca="false">1/2 * (A43 - R43) ^ 2</f>
         <v>0.138698465392081</v>
       </c>
       <c r="V43" s="1" t="n">
@@ -4552,7 +4768,7 @@
         <v>0.0520436525787085</v>
       </c>
       <c r="W43" s="1" t="n">
-        <f aca="false"> (U43+V43)</f>
+        <f aca="false">(U43+V43)</f>
         <v>0.190742117970789</v>
       </c>
       <c r="X43" s="1" t="n">
@@ -4569,15 +4785,15 @@
       </c>
       <c r="AA43" s="1" t="n">
         <f aca="false">((R43-A43)*R43*(1-R43)*N43+(T43-B43)*T43*(1-T43)*P43)*L43*(1-L43)*D43</f>
-        <v>-0.000719406730745506</v>
+        <v>-0.000719406730745507</v>
       </c>
       <c r="AB43" s="1" t="n">
         <f aca="false">(R43-A43)*R43*(1 - R43)*J43</f>
-        <v>0.066384078244155</v>
+        <v>0.0663840782441549</v>
       </c>
       <c r="AC43" s="1" t="n">
         <f aca="false">(R43-A43)*R43*(1-R43)*L43</f>
-        <v>0.0668738812873929</v>
+        <v>0.0668738812873928</v>
       </c>
       <c r="AD43" s="1" t="n">
         <f aca="false">(T43-B43)*T43*(1-T43)*J43</f>
@@ -4621,16 +4837,16 @@
         <f aca="false">(E44*C44 + F44 * D44)</f>
         <v>0.027627343896254</v>
       </c>
-      <c r="J44" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I44))</f>
+      <c r="J44" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I44))</f>
         <v>0.506906396692459</v>
       </c>
       <c r="K44" s="1" t="n">
         <f aca="false">(G44 * C44 + H44 * D44)</f>
         <v>0.0425880288585655</v>
       </c>
-      <c r="L44" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K44))</f>
+      <c r="L44" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K44))</f>
         <v>0.510645398264378</v>
       </c>
       <c r="M44" s="1" t="n">
@@ -4654,7 +4870,7 @@
         <v>0.113107248190727</v>
       </c>
       <c r="R44" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q44))</f>
+        <f aca="false">1/(1+EXP(-Q44))</f>
         <v>0.528246704538198</v>
       </c>
       <c r="S44" s="1" t="n">
@@ -4662,11 +4878,11 @@
         <v>0.714887968070472</v>
       </c>
       <c r="T44" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S44))</f>
+        <f aca="false">1/(1+EXP(-S44))</f>
         <v>0.671480321072782</v>
       </c>
       <c r="U44" s="1" t="n">
-        <f aca="false"> 1/2 * (A44 - R44) ^ 2</f>
+        <f aca="false">1/2 * (A44 - R44) ^ 2</f>
         <v>0.134289823382351</v>
       </c>
       <c r="V44" s="1" t="n">
@@ -4674,12 +4890,12 @@
         <v>0.0507273929319489</v>
       </c>
       <c r="W44" s="1" t="n">
-        <f aca="false"> (U44+V44)</f>
+        <f aca="false">(U44+V44)</f>
         <v>0.1850172163143</v>
       </c>
       <c r="X44" s="1" t="n">
         <f aca="false">(((R44-A44)*R44*(1-R44)*M44)+((T44-B44)*T44*(1-T44)*O44))*J44*(1-J44)*C44</f>
-        <v>-0.000453542444177979</v>
+        <v>-0.00045354244417798</v>
       </c>
       <c r="Y44" s="1" t="n">
         <f aca="false">(((R44-A44)*R44*(1-R44)*M44)+((T44-B44)*T44*(1-T44)*O44))*J44*(1-J44)*D44</f>
@@ -4691,7 +4907,7 @@
       </c>
       <c r="AA44" s="1" t="n">
         <f aca="false">((R44-A44)*R44*(1-R44)*N44+(T44-B44)*T44*(1-T44)*P44)*L44*(1-L44)*D44</f>
-        <v>-0.000843024664139846</v>
+        <v>-0.000843024664139847</v>
       </c>
       <c r="AB44" s="1" t="n">
         <f aca="false">(R44-A44)*R44*(1 - R44)*J44</f>
@@ -4743,16 +4959,16 @@
         <f aca="false">(E45*C45 + F45 * D45)</f>
         <v>0.0276840367017763</v>
       </c>
-      <c r="J45" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I45))</f>
+      <c r="J45" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I45))</f>
         <v>0.506920567184137</v>
       </c>
       <c r="K45" s="1" t="n">
         <f aca="false">(G45 * C45 + H45 * D45)</f>
         <v>0.0426407179000742</v>
       </c>
-      <c r="L45" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K45))</f>
+      <c r="L45" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K45))</f>
         <v>0.510658564546407</v>
       </c>
       <c r="M45" s="1" t="n">
@@ -4776,7 +4992,7 @@
         <v>0.0796785285856282</v>
       </c>
       <c r="R45" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q45))</f>
+        <f aca="false">1/(1+EXP(-Q45))</f>
         <v>0.519909100238587</v>
       </c>
       <c r="S45" s="1" t="n">
@@ -4784,11 +5000,11 @@
         <v>0.733095840176092</v>
       </c>
       <c r="T45" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S45))</f>
+        <f aca="false">1/(1+EXP(-S45))</f>
         <v>0.675484265406994</v>
       </c>
       <c r="U45" s="1" t="n">
-        <f aca="false"> 1/2 * (A45 - R45) ^ 2</f>
+        <f aca="false">1/2 * (A45 - R45) ^ 2</f>
         <v>0.130003645253063</v>
       </c>
       <c r="V45" s="1" t="n">
@@ -4796,7 +5012,7 @@
         <v>0.0494600736532889</v>
       </c>
       <c r="W45" s="1" t="n">
-        <f aca="false"> (U45+V45)</f>
+        <f aca="false">(U45+V45)</f>
         <v>0.179463718906352</v>
       </c>
       <c r="X45" s="1" t="n">
@@ -4865,16 +5081,16 @@
         <f aca="false">(E46*C46 + F46 * D46)</f>
         <v>0.0277480151685025</v>
       </c>
-      <c r="J46" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I46))</f>
+      <c r="J46" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I46))</f>
         <v>0.506936558729531</v>
       </c>
       <c r="K46" s="1" t="n">
         <f aca="false">(G46 * C46 + H46 * D46)</f>
         <v>0.0427007865285121</v>
       </c>
-      <c r="L46" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K46))</f>
+      <c r="L46" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K46))</f>
         <v>0.510673574869806</v>
       </c>
       <c r="M46" s="1" t="n">
@@ -4898,7 +5114,7 @@
         <v>0.0467321653072805</v>
       </c>
       <c r="R46" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q46))</f>
+        <f aca="false">1/(1+EXP(-Q46))</f>
         <v>0.511680915579498</v>
       </c>
       <c r="S46" s="1" t="n">
@@ -4906,11 +5122,11 @@
         <v>0.750966117897172</v>
       </c>
       <c r="T46" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S46))</f>
+        <f aca="false">1/(1+EXP(-S46))</f>
         <v>0.679389174977207</v>
       </c>
       <c r="U46" s="1" t="n">
-        <f aca="false"> 1/2 * (A46 - R46) ^ 2</f>
+        <f aca="false">1/2 * (A46 - R46) ^ 2</f>
         <v>0.125841870528342</v>
       </c>
       <c r="V46" s="1" t="n">
@@ -4918,7 +5134,7 @@
         <v>0.04823954231067</v>
       </c>
       <c r="W46" s="1" t="n">
-        <f aca="false"> (U46+V46)</f>
+        <f aca="false">(U46+V46)</f>
         <v>0.174081412839012</v>
       </c>
       <c r="X46" s="1" t="n">
@@ -4931,7 +5147,7 @@
       </c>
       <c r="Z46" s="1" t="n">
         <f aca="false">((R46-A46)*R46*(1-R46)*N46+(T46-B46)*T46*(1-T46)*P46)*L46*(1-L46)*C46</f>
-        <v>-0.000536783922562964</v>
+        <v>-0.000536783922562965</v>
       </c>
       <c r="AA46" s="1" t="n">
         <f aca="false">((R46-A46)*R46*(1-R46)*N46+(T46-B46)*T46*(1-T46)*P46)*L46*(1-L46)*D46</f>
@@ -4987,25 +5203,25 @@
         <f aca="false">(E47*C47 + F47 * D47)</f>
         <v>0.0278189254698816</v>
       </c>
-      <c r="J47" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I47))</f>
+      <c r="J47" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I47))</f>
         <v>0.506954282884241</v>
       </c>
       <c r="K47" s="1" t="n">
         <f aca="false">(G47 * C47 + H47 * D47)</f>
         <v>0.0427678845188325</v>
       </c>
-      <c r="L47" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K47))</f>
+      <c r="L47" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K47))</f>
         <v>0.510690341711219</v>
       </c>
       <c r="M47" s="1" t="n">
         <f aca="false">M46- $H$32*AB46</f>
-        <v>-0.00954098700614227</v>
+        <v>-0.0095409870061423</v>
       </c>
       <c r="N47" s="1" t="n">
         <f aca="false">N46- $H$32*AC46</f>
-        <v>0.0374348901391421</v>
+        <v>0.037434890139142</v>
       </c>
       <c r="O47" s="1" t="n">
         <f aca="false">O46- $H$32*AD46</f>
@@ -5017,10 +5233,10 @@
       </c>
       <c r="Q47" s="1" t="n">
         <f aca="false">(M47*J47 + N47 * L47)</f>
-        <v>0.0142807926113737</v>
+        <v>0.0142807926113736</v>
       </c>
       <c r="R47" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q47))</f>
+        <f aca="false">1/(1+EXP(-Q47))</f>
         <v>0.503570137478255</v>
       </c>
       <c r="S47" s="1" t="n">
@@ -5028,11 +5244,11 @@
         <v>0.768507619307837</v>
       </c>
       <c r="T47" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S47))</f>
+        <f aca="false">1/(1+EXP(-S47))</f>
         <v>0.683197973440807</v>
       </c>
       <c r="U47" s="1" t="n">
-        <f aca="false"> 1/2 * (A47 - R47) ^ 2</f>
+        <f aca="false">1/2 * (A47 - R47) ^ 2</f>
         <v>0.121805740305152</v>
       </c>
       <c r="V47" s="1" t="n">
@@ -5040,7 +5256,7 @@
         <v>0.0470637417504138</v>
       </c>
       <c r="W47" s="1" t="n">
-        <f aca="false"> (U47+V47)</f>
+        <f aca="false">(U47+V47)</f>
         <v>0.168869482055565</v>
       </c>
       <c r="X47" s="1" t="n">
@@ -5109,16 +5325,16 @@
         <f aca="false">(E48*C48 + F48 * D48)</f>
         <v>0.0278964129871301</v>
       </c>
-      <c r="J48" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I48))</f>
+      <c r="J48" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I48))</f>
         <v>0.506973651005652</v>
       </c>
       <c r="K48" s="1" t="n">
         <f aca="false">(G48 * C48 + H48 * D48)</f>
         <v>0.0428416601947116</v>
       </c>
-      <c r="L48" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K48))</f>
+      <c r="L48" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K48))</f>
         <v>0.510708777184306</v>
       </c>
       <c r="M48" s="1" t="n">
@@ -5127,7 +5343,7 @@
       </c>
       <c r="N48" s="1" t="n">
         <f aca="false">N47- $H$32*AC47</f>
-        <v>0.00592880874127213</v>
+        <v>0.00592880874127205</v>
       </c>
       <c r="O48" s="1" t="n">
         <f aca="false">O47- $H$32*AD47</f>
@@ -5139,10 +5355,10 @@
       </c>
       <c r="Q48" s="1" t="n">
         <f aca="false">(M48*J48 + N48 * L48)</f>
-        <v>-0.0176650355527502</v>
+        <v>-0.0176650355527503</v>
       </c>
       <c r="R48" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q48))</f>
+        <f aca="false">1/(1+EXP(-Q48))</f>
         <v>0.495583855950642</v>
       </c>
       <c r="S48" s="1" t="n">
@@ -5150,11 +5366,11 @@
         <v>0.785728956569889</v>
       </c>
       <c r="T48" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S48))</f>
+        <f aca="false">1/(1+EXP(-S48))</f>
         <v>0.686913519832114</v>
       </c>
       <c r="U48" s="1" t="n">
-        <f aca="false"> 1/2 * (A48 - R48) ^ 2</f>
+        <f aca="false">1/2 * (A48 - R48) ^ 2</f>
         <v>0.117895840579947</v>
       </c>
       <c r="V48" s="1" t="n">
@@ -5162,7 +5378,7 @@
         <v>0.0459307072302791</v>
       </c>
       <c r="W48" s="1" t="n">
-        <f aca="false"> (U48+V48)</f>
+        <f aca="false">(U48+V48)</f>
         <v>0.163826547810226</v>
       </c>
       <c r="X48" s="1" t="n">
@@ -5231,16 +5447,16 @@
         <f aca="false">(E49*C49 + F49 * D49)</f>
         <v>0.0279801243827378</v>
       </c>
-      <c r="J49" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I49))</f>
+      <c r="J49" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I49))</f>
         <v>0.50699457477129</v>
       </c>
       <c r="K49" s="1" t="n">
         <f aca="false">(G49 * C49 + H49 * D49)</f>
         <v>0.0429217625358042</v>
       </c>
-      <c r="L49" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K49))</f>
+      <c r="L49" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K49))</f>
         <v>0.510728793566429</v>
       </c>
       <c r="M49" s="1" t="n">
@@ -5249,7 +5465,7 @@
       </c>
       <c r="N49" s="1" t="n">
         <f aca="false">N48- $H$32*AC48</f>
-        <v>-0.0250677652102679</v>
+        <v>-0.025067765210268</v>
       </c>
       <c r="O49" s="1" t="n">
         <f aca="false">O48- $H$32*AD48</f>
@@ -5261,10 +5477,10 @@
       </c>
       <c r="Q49" s="1" t="n">
         <f aca="false">(M49*J49 + N49 * L49)</f>
-        <v>-0.0490967744483688</v>
+        <v>-0.0490967744483689</v>
       </c>
       <c r="R49" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q49))</f>
+        <f aca="false">1/(1+EXP(-Q49))</f>
         <v>0.487728271365477</v>
       </c>
       <c r="S49" s="1" t="n">
@@ -5272,11 +5488,11 @@
         <v>0.802638531872114</v>
       </c>
       <c r="T49" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S49))</f>
+        <f aca="false">1/(1+EXP(-S49))</f>
         <v>0.690538605582873</v>
       </c>
       <c r="U49" s="1" t="n">
-        <f aca="false"> 1/2 * (A49 - R49) ^ 2</f>
+        <f aca="false">1/2 * (A49 - R49) ^ 2</f>
         <v>0.114112150630924</v>
       </c>
       <c r="V49" s="1" t="n">
@@ -5284,7 +5500,7 @@
         <v>0.0448385633731251</v>
       </c>
       <c r="W49" s="1" t="n">
-        <f aca="false"> (U49+V49)</f>
+        <f aca="false">(U49+V49)</f>
         <v>0.158950714004049</v>
       </c>
       <c r="X49" s="1" t="n">
@@ -5353,16 +5569,16 @@
         <f aca="false">(E50*C50 + F50 * D50)</f>
         <v>0.0280697095117276</v>
       </c>
-      <c r="J50" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I50))</f>
+      <c r="J50" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I50))</f>
         <v>0.507016966656622</v>
       </c>
       <c r="K50" s="1" t="n">
         <f aca="false">(G50 * C50 + H50 * D50)</f>
         <v>0.0430078431265313</v>
       </c>
-      <c r="L50" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K50))</f>
+      <c r="L50" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K50))</f>
         <v>0.510750303785752</v>
       </c>
       <c r="M50" s="1" t="n">
@@ -5386,7 +5602,7 @@
         <v>-0.0800078019353836</v>
       </c>
       <c r="R50" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q50))</f>
+        <f aca="false">1/(1+EXP(-Q50))</f>
         <v>0.480008712478324</v>
       </c>
       <c r="S50" s="1" t="n">
@@ -5394,11 +5610,11 @@
         <v>0.819244534950816</v>
       </c>
       <c r="T50" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S50))</f>
+        <f aca="false">1/(1+EXP(-S50))</f>
         <v>0.694075952319161</v>
       </c>
       <c r="U50" s="1" t="n">
-        <f aca="false"> 1/2 * (A50 - R50) ^ 2</f>
+        <f aca="false">1/2 * (A50 - R50) ^ 2</f>
         <v>0.110454094902766</v>
       </c>
       <c r="V50" s="1" t="n">
@@ -5406,7 +5622,7 @@
         <v>0.0437855209979056</v>
       </c>
       <c r="W50" s="1" t="n">
-        <f aca="false"> (U50+V50)</f>
+        <f aca="false">(U50+V50)</f>
         <v>0.154239615900672</v>
       </c>
       <c r="X50" s="1" t="n">
@@ -5475,16 +5691,16 @@
         <f aca="false">(E51*C51 + F51 * D51)</f>
         <v>0.028164823152918</v>
       </c>
-      <c r="J51" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I51))</f>
+      <c r="J51" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I51))</f>
         <v>0.507040740367847</v>
       </c>
       <c r="K51" s="1" t="n">
         <f aca="false">(G51 * C51 + H51 * D51)</f>
         <v>0.0430995579275999</v>
       </c>
-      <c r="L51" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K51))</f>
+      <c r="L51" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K51))</f>
         <v>0.510773221864017</v>
       </c>
       <c r="M51" s="1" t="n">
@@ -5493,7 +5709,7 @@
       </c>
       <c r="N51" s="1" t="n">
         <f aca="false">N50- $H$32*AC50</f>
-        <v>-0.0855072583132153</v>
+        <v>-0.0855072583132154</v>
       </c>
       <c r="O51" s="1" t="n">
         <f aca="false">O50- $H$32*AD50</f>
@@ -5501,14 +5717,14 @@
       </c>
       <c r="P51" s="1" t="n">
         <f aca="false">P50- $H$32*AE50</f>
-        <v>0.846922921240431</v>
+        <v>0.846922921240432</v>
       </c>
       <c r="Q51" s="1" t="n">
         <f aca="false">(M51*J51 + N51 * L51)</f>
         <v>-0.110393319331012</v>
       </c>
       <c r="R51" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q51))</f>
+        <f aca="false">1/(1+EXP(-Q51))</f>
         <v>0.472429663732108</v>
       </c>
       <c r="S51" s="1" t="n">
@@ -5516,11 +5732,11 @@
         <v>0.835554941971166</v>
       </c>
       <c r="T51" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S51))</f>
+        <f aca="false">1/(1+EXP(-S51))</f>
         <v>0.69752821033187</v>
       </c>
       <c r="U51" s="1" t="n">
-        <f aca="false"> 1/2 * (A51 - R51) ^ 2</f>
+        <f aca="false">1/2 * (A51 - R51) ^ 2</f>
         <v>0.106920596949695</v>
       </c>
       <c r="V51" s="1" t="n">
@@ -5528,7 +5744,7 @@
         <v>0.0427698738758394</v>
       </c>
       <c r="W51" s="1" t="n">
-        <f aca="false"> (U51+V51)</f>
+        <f aca="false">(U51+V51)</f>
         <v>0.149690470825535</v>
       </c>
       <c r="X51" s="1" t="n">
@@ -5541,7 +5757,7 @@
       </c>
       <c r="Z51" s="1" t="n">
         <f aca="false">((R51-A51)*R51*(1-R51)*N51+(T51-B51)*T51*(1-T51)*P51)*L51*(1-L51)*C51</f>
-        <v>-0.000776087444255236</v>
+        <v>-0.000776087444255237</v>
       </c>
       <c r="AA51" s="1" t="n">
         <f aca="false">((R51-A51)*R51*(1-R51)*N51+(T51-B51)*T51*(1-T51)*P51)*L51*(1-L51)*D51</f>
@@ -5597,16 +5813,16 @@
         <f aca="false">(E52*C52 + F52 * D52)</f>
         <v>0.0282651265490423</v>
       </c>
-      <c r="J52" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I52))</f>
+      <c r="J52" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I52))</f>
         <v>0.507065811226909</v>
       </c>
       <c r="K52" s="1" t="n">
         <f aca="false">(G52 * C52 + H52 * D52)</f>
         <v>0.0431965688581318</v>
       </c>
-      <c r="L52" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K52))</f>
+      <c r="L52" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K52))</f>
         <v>0.510797463311983</v>
       </c>
       <c r="M52" s="1" t="n">
@@ -5630,7 +5846,7 @@
         <v>-0.140250242662294</v>
       </c>
       <c r="R52" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q52))</f>
+        <f aca="false">1/(1+EXP(-Q52))</f>
         <v>0.464994800269551</v>
       </c>
       <c r="S52" s="1" t="n">
@@ -5638,11 +5854,11 @@
         <v>0.851577515571122</v>
       </c>
       <c r="T52" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S52))</f>
+        <f aca="false">1/(1+EXP(-S52))</f>
         <v>0.700897957628278</v>
       </c>
       <c r="U52" s="1" t="n">
-        <f aca="false"> 1/2 * (A52 - R52) ^ 2</f>
+        <f aca="false">1/2 * (A52 - R52) ^ 2</f>
         <v>0.103510134136164</v>
       </c>
       <c r="V52" s="1" t="n">
@@ -5650,7 +5866,7 @@
         <v>0.0417899954517504</v>
       </c>
       <c r="W52" s="1" t="n">
-        <f aca="false"> (U52+V52)</f>
+        <f aca="false">(U52+V52)</f>
         <v>0.145300129587915</v>
       </c>
       <c r="X52" s="1" t="n">
@@ -5719,16 +5935,16 @@
         <f aca="false">(E53*C53 + F53 * D53)</f>
         <v>0.0283702887505617</v>
       </c>
-      <c r="J53" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I53))</f>
+      <c r="J53" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I53))</f>
         <v>0.507092096507438</v>
       </c>
       <c r="K53" s="1" t="n">
         <f aca="false">(G53 * C53 + H53 * D53)</f>
         <v>0.0432985451823602</v>
       </c>
-      <c r="L53" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K53))</f>
+      <c r="L53" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K53))</f>
         <v>0.510822945476028</v>
       </c>
       <c r="M53" s="1" t="n">
@@ -5737,7 +5953,7 @@
       </c>
       <c r="N53" s="1" t="n">
         <f aca="false">N52- $H$32*AC52</f>
-        <v>-0.143850955330637</v>
+        <v>-0.143850955330638</v>
       </c>
       <c r="O53" s="1" t="n">
         <f aca="false">O52- $H$32*AD52</f>
@@ -5752,7 +5968,7 @@
         <v>-0.169577087066855</v>
       </c>
       <c r="R53" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q53))</f>
+        <f aca="false">1/(1+EXP(-Q53))</f>
         <v>0.457707029117441</v>
       </c>
       <c r="S53" s="1" t="n">
@@ -5760,11 +5976,11 @@
         <v>0.867319805890797</v>
       </c>
       <c r="T53" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S53))</f>
+        <f aca="false">1/(1+EXP(-S53))</f>
         <v>0.704187699482038</v>
       </c>
       <c r="U53" s="1" t="n">
-        <f aca="false"> 1/2 * (A53 - R53) ^ 2</f>
+        <f aca="false">1/2 * (A53 - R53) ^ 2</f>
         <v>0.100220791960583</v>
       </c>
       <c r="V53" s="1" t="n">
@@ -5772,7 +5988,7 @@
         <v>0.0408443355636848</v>
       </c>
       <c r="W53" s="1" t="n">
-        <f aca="false"> (U53+V53)</f>
+        <f aca="false">(U53+V53)</f>
         <v>0.141065127524268</v>
       </c>
       <c r="X53" s="1" t="n">
@@ -5841,16 +6057,16 @@
         <f aca="false">(E54*C54 + F54 * D54)</f>
         <v>0.0284799877632577</v>
       </c>
-      <c r="J54" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I54))</f>
+      <c r="J54" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I54))</f>
         <v>0.507119515721629</v>
       </c>
       <c r="K54" s="1" t="n">
         <f aca="false">(G54 * C54 + H54 * D54)</f>
         <v>0.043405164700202</v>
       </c>
-      <c r="L54" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K54))</f>
+      <c r="L54" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K54))</f>
         <v>0.51084958783572</v>
       </c>
       <c r="M54" s="1" t="n">
@@ -5874,7 +6090,7 @@
         <v>-0.198373846882788</v>
       </c>
       <c r="R54" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q54))</f>
+        <f aca="false">1/(1+EXP(-Q54))</f>
         <v>0.450568535065397</v>
       </c>
       <c r="S54" s="1" t="n">
@@ -5882,11 +6098,11 @@
         <v>0.882789152429992</v>
       </c>
       <c r="T54" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S54))</f>
+        <f aca="false">1/(1+EXP(-S54))</f>
         <v>0.707399868408006</v>
       </c>
       <c r="U54" s="1" t="n">
-        <f aca="false"> 1/2 * (A54 - R54) ^ 2</f>
+        <f aca="false">1/2 * (A54 - R54) ^ 2</f>
         <v>0.0970503170448351</v>
       </c>
       <c r="V54" s="1" t="n">
@@ -5894,7 +6110,7 @@
         <v>0.0399314171879062</v>
       </c>
       <c r="W54" s="1" t="n">
-        <f aca="false"> (U54+V54)</f>
+        <f aca="false">(U54+V54)</f>
         <v>0.136981734232741</v>
       </c>
       <c r="X54" s="1" t="n">
@@ -5963,16 +6179,16 @@
         <f aca="false">(E55*C55 + F55 * D55)</f>
         <v>0.0285939115041091</v>
       </c>
-      <c r="J55" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I55))</f>
+      <c r="J55" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I55))</f>
         <v>0.507147990859206</v>
       </c>
       <c r="K55" s="1" t="n">
         <f aca="false">(G55 * C55 + H55 * D55)</f>
         <v>0.0435161147455461</v>
       </c>
-      <c r="L55" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K55))</f>
+      <c r="L55" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K55))</f>
         <v>0.51087731225333</v>
       </c>
       <c r="M55" s="1" t="n">
@@ -5996,7 +6212,7 @@
         <v>-0.226641873713434</v>
       </c>
       <c r="R55" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q55))</f>
+        <f aca="false">1/(1+EXP(-Q55))</f>
         <v>0.443580829861324</v>
       </c>
       <c r="S55" s="1" t="n">
@@ -6004,11 +6220,11 @@
         <v>0.897992686595093</v>
       </c>
       <c r="T55" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S55))</f>
+        <f aca="false">1/(1+EXP(-S55))</f>
         <v>0.710536824496776</v>
       </c>
       <c r="U55" s="1" t="n">
-        <f aca="false"> 1/2 * (A55 - R55) ^ 2</f>
+        <f aca="false">1/2 * (A55 - R55) ^ 2</f>
         <v>0.0939961680116174</v>
       </c>
       <c r="V55" s="1" t="n">
@@ -6016,7 +6232,7 @@
         <v>0.0390498332311729</v>
       </c>
       <c r="W55" s="1" t="n">
-        <f aca="false"> (U55+V55)</f>
+        <f aca="false">(U55+V55)</f>
         <v>0.13304600124279</v>
       </c>
       <c r="X55" s="1" t="n">
@@ -6085,21 +6301,21 @@
         <f aca="false">(E56*C56 + F56 * D56)</f>
         <v>0.0287117585735416</v>
       </c>
-      <c r="J56" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I56))</f>
+      <c r="J56" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I56))</f>
         <v>0.507177446580466</v>
       </c>
       <c r="K56" s="1" t="n">
         <f aca="false">(G56 * C56 + H56 * D56)</f>
         <v>0.0436310929997895</v>
       </c>
-      <c r="L56" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K56))</f>
+      <c r="L56" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K56))</f>
         <v>0.510906043177168</v>
       </c>
       <c r="M56" s="1" t="n">
         <f aca="false">M55- $H$32*AB55</f>
-        <v>-0.2724679447534</v>
+        <v>-0.272467944753401</v>
       </c>
       <c r="N56" s="1" t="n">
         <f aca="false">N55- $H$32*AC55</f>
@@ -6118,7 +6334,7 @@
         <v>-0.254383754474219</v>
       </c>
       <c r="R56" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q56))</f>
+        <f aca="false">1/(1+EXP(-Q56))</f>
         <v>0.436744803471522</v>
       </c>
       <c r="S56" s="1" t="n">
@@ -6126,11 +6342,11 @@
         <v>0.912937334813493</v>
       </c>
       <c r="T56" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S56))</f>
+        <f aca="false">1/(1+EXP(-S56))</f>
         <v>0.713600856051513</v>
       </c>
       <c r="U56" s="1" t="n">
-        <f aca="false"> 1/2 * (A56 - R56) ^ 2</f>
+        <f aca="false">1/2 * (A56 - R56) ^ 2</f>
         <v>0.0910555636449739</v>
       </c>
       <c r="V56" s="1" t="n">
@@ -6138,7 +6354,7 @@
         <v>0.0381982433877282</v>
       </c>
       <c r="W56" s="1" t="n">
-        <f aca="false"> (U56+V56)</f>
+        <f aca="false">(U56+V56)</f>
         <v>0.129253807032702</v>
       </c>
       <c r="X56" s="1" t="n">
@@ -6207,16 +6423,16 @@
         <f aca="false">(E57*C57 + F57 * D57)</f>
         <v>0.0288332388548985</v>
       </c>
-      <c r="J57" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I57))</f>
+      <c r="J57" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I57))</f>
         <v>0.507207810366146</v>
       </c>
       <c r="K57" s="1" t="n">
         <f aca="false">(G57 * C57 + H57 * D57)</f>
         <v>0.0437498081310206</v>
       </c>
-      <c r="L57" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K57))</f>
+      <c r="L57" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K57))</f>
         <v>0.510935707801345</v>
       </c>
       <c r="M57" s="1" t="n">
@@ -6225,7 +6441,7 @@
       </c>
       <c r="N57" s="1" t="n">
         <f aca="false">N56- $H$32*AC56</f>
-        <v>-0.254244770927925</v>
+        <v>-0.254244770927926</v>
       </c>
       <c r="O57" s="1" t="n">
         <f aca="false">O56- $H$32*AD56</f>
@@ -6240,7 +6456,7 @@
         <v>-0.281603191140493</v>
       </c>
       <c r="R57" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q57))</f>
+        <f aca="false">1/(1+EXP(-Q57))</f>
         <v>0.43006077629582</v>
       </c>
       <c r="S57" s="1" t="n">
@@ -6248,11 +6464,11 @@
         <v>0.927629822109205</v>
       </c>
       <c r="T57" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S57))</f>
+        <f aca="false">1/(1+EXP(-S57))</f>
         <v>0.71659418047668</v>
       </c>
       <c r="U57" s="1" t="n">
-        <f aca="false"> 1/2 * (A57 - R57) ^ 2</f>
+        <f aca="false">1/2 * (A57 - R57) ^ 2</f>
         <v>0.0882255278911237</v>
       </c>
       <c r="V57" s="1" t="n">
@@ -6260,7 +6476,7 @@
         <v>0.0373753710746091</v>
       </c>
       <c r="W57" s="1" t="n">
-        <f aca="false"> (U57+V57)</f>
+        <f aca="false">(U57+V57)</f>
         <v>0.125600898965733</v>
       </c>
       <c r="X57" s="1" t="n">
@@ -6273,7 +6489,7 @@
       </c>
       <c r="Z57" s="1" t="n">
         <f aca="false">((R57-A57)*R57*(1-R57)*N57+(T57-B57)*T57*(1-T57)*P57)*L57*(1-L57)*C57</f>
-        <v>-0.000977377122582009</v>
+        <v>-0.00097737712258201</v>
       </c>
       <c r="AA57" s="1" t="n">
         <f aca="false">((R57-A57)*R57*(1-R57)*N57+(T57-B57)*T57*(1-T57)*P57)*L57*(1-L57)*D57</f>
@@ -6281,11 +6497,11 @@
       </c>
       <c r="AB57" s="1" t="n">
         <f aca="false">(R57-A57)*R57*(1 - R57)*J57</f>
-        <v>0.0522223539758213</v>
+        <v>0.0522223539758212</v>
       </c>
       <c r="AC57" s="1" t="n">
         <f aca="false">(R57-A57)*R57*(1-R57)*L57</f>
-        <v>0.0526061800436927</v>
+        <v>0.0526061800436926</v>
       </c>
       <c r="AD57" s="1" t="n">
         <f aca="false">(T57-B57)*T57*(1-T57)*J57</f>
@@ -6329,16 +6545,16 @@
         <f aca="false">(E58*C58 + F58 * D58)</f>
         <v>0.028958073953973</v>
       </c>
-      <c r="J58" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I58))</f>
+      <c r="J58" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I58))</f>
         <v>0.5072390126273</v>
       </c>
       <c r="K58" s="1" t="n">
         <f aca="false">(G58 * C58 + H58 * D58)</f>
         <v>0.0438719802713433</v>
       </c>
-      <c r="L58" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K58))</f>
+      <c r="L58" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K58))</f>
         <v>0.51096623618507</v>
       </c>
       <c r="M58" s="1" t="n">
@@ -6362,7 +6578,7 @@
         <v>-0.308304883629108</v>
       </c>
       <c r="R58" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q58))</f>
+        <f aca="false">1/(1+EXP(-Q58))</f>
         <v>0.423528551378615</v>
       </c>
       <c r="S58" s="1" t="n">
@@ -6370,11 +6586,11 @@
         <v>0.942076676047338</v>
       </c>
       <c r="T58" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S58))</f>
+        <f aca="false">1/(1+EXP(-S58))</f>
         <v>0.719518945374594</v>
       </c>
       <c r="U58" s="1" t="n">
-        <f aca="false"> 1/2 * (A58 - R58) ^ 2</f>
+        <f aca="false">1/2 * (A58 - R58) ^ 2</f>
         <v>0.085502931402648</v>
       </c>
       <c r="V58" s="1" t="n">
@@ -6382,7 +6598,7 @@
         <v>0.0365800004556359</v>
       </c>
       <c r="W58" s="1" t="n">
-        <f aca="false"> (U58+V58)</f>
+        <f aca="false">(U58+V58)</f>
         <v>0.122082931858284</v>
       </c>
       <c r="X58" s="1" t="n">
@@ -6451,16 +6667,16 @@
         <f aca="false">(E59*C59 + F59 * D59)</f>
         <v>0.0290859974927486</v>
       </c>
-      <c r="J59" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I59))</f>
+      <c r="J59" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I59))</f>
         <v>0.507270986778725</v>
       </c>
       <c r="K59" s="1" t="n">
         <f aca="false">(G59 * C59 + H59 * D59)</f>
         <v>0.0439973413462309</v>
       </c>
-      <c r="L59" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K59))</f>
+      <c r="L59" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K59))</f>
         <v>0.510997561334973</v>
       </c>
       <c r="M59" s="1" t="n">
@@ -6484,7 +6700,7 @@
         <v>-0.334494416971562</v>
       </c>
       <c r="R59" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q59))</f>
+        <f aca="false">1/(1+EXP(-Q59))</f>
         <v>0.417147465808169</v>
       </c>
       <c r="S59" s="1" t="n">
@@ -6492,11 +6708,11 @@
         <v>0.956284230967683</v>
       </c>
       <c r="T59" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S59))</f>
+        <f aca="false">1/(1+EXP(-S59))</f>
         <v>0.72237722981143</v>
       </c>
       <c r="U59" s="1" t="n">
-        <f aca="false"> 1/2 * (A59 - R59) ^ 2</f>
+        <f aca="false">1/2 * (A59 - R59) ^ 2</f>
         <v>0.0828845294570071</v>
       </c>
       <c r="V59" s="1" t="n">
@@ -6504,7 +6720,7 @@
         <v>0.0358109735617021</v>
       </c>
       <c r="W59" s="1" t="n">
-        <f aca="false"> (U59+V59)</f>
+        <f aca="false">(U59+V59)</f>
         <v>0.118695503018709</v>
       </c>
       <c r="X59" s="1" t="n">
@@ -6573,16 +6789,16 @@
         <f aca="false">(E60*C60 + F60 * D60)</f>
         <v>0.0292167552721901</v>
       </c>
-      <c r="J60" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I60))</f>
+      <c r="J60" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I60))</f>
         <v>0.507303669279662</v>
       </c>
       <c r="K60" s="1" t="n">
         <f aca="false">(G60 * C60 + H60 * D60)</f>
         <v>0.0441256352705789</v>
       </c>
-      <c r="L60" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K60))</f>
+      <c r="L60" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K60))</f>
         <v>0.511029619254102</v>
       </c>
       <c r="M60" s="1" t="n">
@@ -6606,7 +6822,7 @@
         <v>-0.360178153679613</v>
       </c>
       <c r="R60" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q60))</f>
+        <f aca="false">1/(1+EXP(-Q60))</f>
         <v>0.410916440643443</v>
       </c>
       <c r="S60" s="1" t="n">
@@ -6614,19 +6830,19 @@
         <v>0.97025863243886</v>
       </c>
       <c r="T60" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S60))</f>
+        <f aca="false">1/(1+EXP(-S60))</f>
         <v>0.725171045719352</v>
       </c>
       <c r="U60" s="1" t="n">
-        <f aca="false"> 1/2 * (A60 - R60) ^ 2</f>
-        <v>0.0803669961891039</v>
+        <f aca="false">1/2 * (A60 - R60) ^ 2</f>
+        <v>0.0803669961891038</v>
       </c>
       <c r="V60" s="1" t="n">
         <f aca="false">1/2 * (B60-T60) ^ 2</f>
         <v>0.0350671875126907</v>
       </c>
       <c r="W60" s="1" t="n">
-        <f aca="false"> (U60+V60)</f>
+        <f aca="false">(U60+V60)</f>
         <v>0.115434183701795</v>
       </c>
       <c r="X60" s="1" t="n">
@@ -6695,16 +6911,16 @@
         <f aca="false">(E61*C61 + F61 * D61)</f>
         <v>0.0293501053191282</v>
       </c>
-      <c r="J61" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I61))</f>
+      <c r="J61" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I61))</f>
         <v>0.507336999645516</v>
       </c>
       <c r="K61" s="1" t="n">
         <f aca="false">(G61 * C61 + H61 * D61)</f>
         <v>0.0442566180263966</v>
       </c>
-      <c r="L61" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K61))</f>
+      <c r="L61" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K61))</f>
         <v>0.511062348961346</v>
       </c>
       <c r="M61" s="1" t="n">
@@ -6713,7 +6929,7 @@
       </c>
       <c r="N61" s="1" t="n">
         <f aca="false">N60- $H$32*AC60</f>
-        <v>-0.356431826917312</v>
+        <v>-0.356431826917313</v>
       </c>
       <c r="O61" s="1" t="n">
         <f aca="false">O60- $H$32*AD60</f>
@@ -6728,7 +6944,7 @@
         <v>-0.385363131970207</v>
       </c>
       <c r="R61" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q61))</f>
+        <f aca="false">1/(1+EXP(-Q61))</f>
         <v>0.404834028845788</v>
       </c>
       <c r="S61" s="1" t="n">
@@ -6736,11 +6952,11 @@
         <v>0.984005841874368</v>
       </c>
       <c r="T61" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S61))</f>
+        <f aca="false">1/(1+EXP(-S61))</f>
         <v>0.727902339405968</v>
       </c>
       <c r="U61" s="1" t="n">
-        <f aca="false"> 1/2 * (A61 - R61) ^ 2</f>
+        <f aca="false">1/2 * (A61 - R61) ^ 2</f>
         <v>0.0779469551672981</v>
       </c>
       <c r="V61" s="1" t="n">
@@ -6748,7 +6964,7 @@
         <v>0.0343475918444322</v>
       </c>
       <c r="W61" s="1" t="n">
-        <f aca="false"> (U61+V61)</f>
+        <f aca="false">(U61+V61)</f>
         <v>0.11229454701173</v>
       </c>
       <c r="X61" s="1" t="n">
@@ -6817,16 +7033,16 @@
         <f aca="false">(E62*C62 + F62 * D62)</f>
         <v>0.0294858178320572</v>
       </c>
-      <c r="J62" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I62))</f>
+      <c r="J62" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I62))</f>
         <v>0.507370920434303</v>
       </c>
       <c r="K62" s="1" t="n">
         <f aca="false">(G62 * C62 + H62 * D62)</f>
         <v>0.0443900576369169</v>
       </c>
-      <c r="L62" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K62))</f>
+      <c r="L62" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K62))</f>
         <v>0.511095692484959</v>
       </c>
       <c r="M62" s="1" t="n">
@@ -6850,7 +7066,7 @@
         <v>-0.410056970307979</v>
       </c>
       <c r="R62" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q62))</f>
+        <f aca="false">1/(1+EXP(-Q62))</f>
         <v>0.398898460819171</v>
       </c>
       <c r="S62" s="1" t="n">
@@ -6858,11 +7074,11 @@
         <v>0.997531641260635</v>
       </c>
       <c r="T62" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S62))</f>
+        <f aca="false">1/(1+EXP(-S62))</f>
         <v>0.730572993146251</v>
       </c>
       <c r="U62" s="1" t="n">
-        <f aca="false"> 1/2 * (A62 - R62) ^ 2</f>
+        <f aca="false">1/2 * (A62 - R62) ^ 2</f>
         <v>0.0756210064137601</v>
       </c>
       <c r="V62" s="1" t="n">
@@ -6870,7 +7086,7 @@
         <v>0.0336511859425475</v>
       </c>
       <c r="W62" s="1" t="n">
-        <f aca="false"> (U62+V62)</f>
+        <f aca="false">(U62+V62)</f>
         <v>0.109272192356308</v>
       </c>
       <c r="X62" s="1" t="n">
@@ -6939,16 +7155,16 @@
         <f aca="false">(E63*C63 + F63 * D63)</f>
         <v>0.0296236750401316</v>
       </c>
-      <c r="J63" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I63))</f>
+      <c r="J63" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I63))</f>
         <v>0.507405377211408</v>
       </c>
       <c r="K63" s="1" t="n">
         <f aca="false">(G63 * C63 + H63 * D63)</f>
         <v>0.044525734051418</v>
       </c>
-      <c r="L63" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K63))</f>
+      <c r="L63" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K63))</f>
         <v>0.511129594833775</v>
       </c>
       <c r="M63" s="1" t="n">
@@ -6972,7 +7188,7 @@
         <v>-0.434267778541833</v>
       </c>
       <c r="R63" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q63))</f>
+        <f aca="false">1/(1+EXP(-Q63))</f>
         <v>0.39310768727553</v>
       </c>
       <c r="S63" s="1" t="n">
@@ -6980,11 +7196,11 @@
         <v>1.01084163795478</v>
       </c>
       <c r="T63" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S63))</f>
+        <f aca="false">1/(1+EXP(-S63))</f>
         <v>0.733184826835624</v>
       </c>
       <c r="U63" s="1" t="n">
-        <f aca="false"> 1/2 * (A63 - R63) ^ 2</f>
+        <f aca="false">1/2 * (A63 - R63) ^ 2</f>
         <v>0.0733857500248027</v>
       </c>
       <c r="V63" s="1" t="n">
@@ -6992,7 +7208,7 @@
         <v>0.0329770165837241</v>
       </c>
       <c r="W63" s="1" t="n">
-        <f aca="false"> (U63+V63)</f>
+        <f aca="false">(U63+V63)</f>
         <v>0.106362766608527</v>
       </c>
       <c r="X63" s="1" t="n">
@@ -7061,16 +7277,16 @@
         <f aca="false">(E64*C64 + F64 * D64)</f>
         <v>0.0297634709888669</v>
       </c>
-      <c r="J64" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I64))</f>
+      <c r="J64" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I64))</f>
         <v>0.507440318496007</v>
       </c>
       <c r="K64" s="1" t="n">
         <f aca="false">(G64 * C64 + H64 * D64)</f>
         <v>0.0446634389543126</v>
       </c>
-      <c r="L64" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K64))</f>
+      <c r="L64" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K64))</f>
         <v>0.511164003949495</v>
       </c>
       <c r="M64" s="1" t="n">
@@ -7083,7 +7299,7 @@
       </c>
       <c r="O64" s="1" t="n">
         <f aca="false">O63- $H$32*AD63</f>
-        <v>0.978379060999223</v>
+        <v>0.978379060999222</v>
       </c>
       <c r="P64" s="1" t="n">
         <f aca="false">P63- $H$32*AE63</f>
@@ -7094,7 +7310,7 @@
         <v>-0.458004075757084</v>
       </c>
       <c r="R64" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q64))</f>
+        <f aca="false">1/(1+EXP(-Q64))</f>
         <v>0.387459419240392</v>
       </c>
       <c r="S64" s="1" t="n">
@@ -7102,11 +7318,11 @@
         <v>1.02394126951643</v>
       </c>
       <c r="T64" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S64))</f>
+        <f aca="false">1/(1+EXP(-S64))</f>
         <v>0.735739599685927</v>
       </c>
       <c r="U64" s="1" t="n">
-        <f aca="false"> 1/2 * (A64 - R64) ^ 2</f>
+        <f aca="false">1/2 * (A64 - R64) ^ 2</f>
         <v>0.0712378065866469</v>
       </c>
       <c r="V64" s="1" t="n">
@@ -7114,7 +7330,7 @@
         <v>0.0323241755839363</v>
       </c>
       <c r="W64" s="1" t="n">
-        <f aca="false"> (U64+V64)</f>
+        <f aca="false">(U64+V64)</f>
         <v>0.103561982170583</v>
       </c>
       <c r="X64" s="1" t="n">
@@ -7183,16 +7399,16 @@
         <f aca="false">(E65*C65 + F65 * D65)</f>
         <v>0.029905011265104</v>
       </c>
-      <c r="J65" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I65))</f>
+      <c r="J65" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I65))</f>
         <v>0.507475695692316</v>
       </c>
       <c r="K65" s="1" t="n">
         <f aca="false">(G65 * C65 + H65 * D65)</f>
         <v>0.0448029755111494</v>
       </c>
-      <c r="L65" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K65))</f>
+      <c r="L65" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K65))</f>
         <v>0.511198870643196</v>
       </c>
       <c r="M65" s="1" t="n">
@@ -7216,7 +7432,7 @@
         <v>-0.481274714835336</v>
       </c>
       <c r="R65" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q65))</f>
+        <f aca="false">1/(1+EXP(-Q65))</f>
         <v>0.381951165098152</v>
       </c>
       <c r="S65" s="1" t="n">
@@ -7224,19 +7440,19 @@
         <v>1.03683580854384</v>
       </c>
       <c r="T65" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S65))</f>
+        <f aca="false">1/(1+EXP(-S65))</f>
         <v>0.738239011948722</v>
       </c>
       <c r="U65" s="1" t="n">
-        <f aca="false"> 1/2 * (A65 - R65) ^ 2</f>
-        <v>0.0691738346089365</v>
+        <f aca="false">1/2 * (A65 - R65) ^ 2</f>
+        <v>0.0691738346089364</v>
       </c>
       <c r="V65" s="1" t="n">
         <f aca="false">1/2 * (B65-T65) ^ 2</f>
         <v>0.0316917975522779</v>
       </c>
       <c r="W65" s="1" t="n">
-        <f aca="false"> (U65+V65)</f>
+        <f aca="false">(U65+V65)</f>
         <v>0.100865632161214</v>
       </c>
       <c r="X65" s="1" t="n">
@@ -7257,7 +7473,7 @@
       </c>
       <c r="AB65" s="1" t="n">
         <f aca="false">(R65-A65)*R65*(1 - R65)*J65</f>
-        <v>0.044558627197491</v>
+        <v>0.0445586271974909</v>
       </c>
       <c r="AC65" s="1" t="n">
         <f aca="false">(R65-A65)*R65*(1-R65)*L65</f>
@@ -7305,16 +7521,16 @@
         <f aca="false">(E66*C66 + F66 * D66)</f>
         <v>0.0300481126727513</v>
       </c>
-      <c r="J66" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I66))</f>
+      <c r="J66" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I66))</f>
         <v>0.507511463008535</v>
       </c>
       <c r="K66" s="1" t="n">
         <f aca="false">(G66 * C66 + H66 * D66)</f>
         <v>0.0449441580631423</v>
       </c>
-      <c r="L66" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K66))</f>
+      <c r="L66" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K66))</f>
         <v>0.51123414851899</v>
       </c>
       <c r="M66" s="1" t="n">
@@ -7338,7 +7554,7 @@
         <v>-0.504088813609106</v>
       </c>
       <c r="R66" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q66))</f>
+        <f aca="false">1/(1+EXP(-Q66))</f>
         <v>0.376580264646748</v>
       </c>
       <c r="S66" s="1" t="n">
@@ -7346,11 +7562,11 @@
         <v>1.0495303674892</v>
       </c>
       <c r="T66" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S66))</f>
+        <f aca="false">1/(1+EXP(-S66))</f>
         <v>0.740684706652715</v>
       </c>
       <c r="U66" s="1" t="n">
-        <f aca="false"> 1/2 * (A66 - R66) ^ 2</f>
+        <f aca="false">1/2 * (A66 - R66) ^ 2</f>
         <v>0.0671905452142401</v>
       </c>
       <c r="V66" s="1" t="n">
@@ -7358,7 +7574,7 @@
         <v>0.0310790577484213</v>
       </c>
       <c r="W66" s="1" t="n">
-        <f aca="false"> (U66+V66)</f>
+        <f aca="false">(U66+V66)</f>
         <v>0.0982696029626613</v>
       </c>
       <c r="X66" s="1" t="n">
@@ -7427,16 +7643,16 @@
         <f aca="false">(E67*C67 + F67 * D67)</f>
         <v>0.030192602869709</v>
       </c>
-      <c r="J67" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I67))</f>
+      <c r="J67" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I67))</f>
         <v>0.507547577366078</v>
       </c>
       <c r="K67" s="1" t="n">
         <f aca="false">(G67 * C67 + H67 * D67)</f>
         <v>0.0450868117807619</v>
       </c>
-      <c r="L67" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K67))</f>
+      <c r="L67" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K67))</f>
         <v>0.511269793887441</v>
       </c>
       <c r="M67" s="1" t="n">
@@ -7449,7 +7665,7 @@
       </c>
       <c r="O67" s="1" t="n">
         <f aca="false">O66- $H$32*AD66</f>
-        <v>1.01541768759203</v>
+        <v>1.01541768759202</v>
       </c>
       <c r="P67" s="1" t="n">
         <f aca="false">P66- $H$32*AE66</f>
@@ -7460,7 +7676,7 @@
         <v>-0.526455692414878</v>
       </c>
       <c r="R67" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q67))</f>
+        <f aca="false">1/(1+EXP(-Q67))</f>
         <v>0.371343920188819</v>
       </c>
       <c r="S67" s="1" t="n">
@@ -7468,11 +7684,11 @@
         <v>1.06202990343287</v>
       </c>
       <c r="T67" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S67))</f>
+        <f aca="false">1/(1+EXP(-S67))</f>
         <v>0.743078271344138</v>
       </c>
       <c r="U67" s="1" t="n">
-        <f aca="false"> 1/2 * (A67 - R67) ^ 2</f>
+        <f aca="false">1/2 * (A67 - R67) ^ 2</f>
         <v>0.0652847143287118</v>
       </c>
       <c r="V67" s="1" t="n">
@@ -7480,7 +7696,7 @@
         <v>0.0304851700411995</v>
       </c>
       <c r="W67" s="1" t="n">
-        <f aca="false"> (U67+V67)</f>
+        <f aca="false">(U67+V67)</f>
         <v>0.0957698843699113</v>
       </c>
       <c r="X67" s="1" t="n">
@@ -7549,16 +7765,16 @@
         <f aca="false">(E68*C68 + F68 * D68)</f>
         <v>0.0303383199752732</v>
       </c>
-      <c r="J68" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I68))</f>
+      <c r="J68" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I68))</f>
         <v>0.507583998301439</v>
       </c>
       <c r="K68" s="1" t="n">
         <f aca="false">(G68 * C68 + H68 * D68)</f>
         <v>0.045230772285819</v>
       </c>
-      <c r="L68" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K68))</f>
+      <c r="L68" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K68))</f>
         <v>0.51130576567111</v>
       </c>
       <c r="M68" s="1" t="n">
@@ -7582,7 +7798,7 @@
         <v>-0.548384817784654</v>
       </c>
       <c r="R68" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q68))</f>
+        <f aca="false">1/(1+EXP(-Q68))</f>
         <v>0.366239224731987</v>
       </c>
       <c r="S68" s="1" t="n">
@@ -7590,11 +7806,11 @@
         <v>1.07433922279931</v>
       </c>
       <c r="T68" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S68))</f>
+        <f aca="false">1/(1+EXP(-S68))</f>
         <v>0.745421239820687</v>
       </c>
       <c r="U68" s="1" t="n">
-        <f aca="false"> 1/2 * (A68 - R68) ^ 2</f>
+        <f aca="false">1/2 * (A68 - R68) ^ 2</f>
         <v>0.0634531926188236</v>
       </c>
       <c r="V68" s="1" t="n">
@@ -7602,7 +7818,7 @@
         <v>0.029909384965425</v>
       </c>
       <c r="W68" s="1" t="n">
-        <f aca="false"> (U68+V68)</f>
+        <f aca="false">(U68+V68)</f>
         <v>0.0933625775842485</v>
       </c>
       <c r="X68" s="1" t="n">
@@ -7671,16 +7887,16 @@
         <f aca="false">(E69*C69 + F69 * D69)</f>
         <v>0.0304851121562167</v>
       </c>
-      <c r="J69" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I69))</f>
+      <c r="J69" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I69))</f>
         <v>0.507620687862714</v>
       </c>
       <c r="K69" s="1" t="n">
         <f aca="false">(G69 * C69 + H69 * D69)</f>
         <v>0.0453758852503797</v>
       </c>
-      <c r="L69" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K69))</f>
+      <c r="L69" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K69))</f>
         <v>0.511342025304311</v>
       </c>
       <c r="M69" s="1" t="n">
@@ -7689,7 +7905,7 @@
       </c>
       <c r="N69" s="1" t="n">
         <f aca="false">N68- $H$32*AC68</f>
-        <v>-0.537969939013776</v>
+        <v>-0.537969939013777</v>
       </c>
       <c r="O69" s="1" t="n">
         <f aca="false">O68- $H$32*AD68</f>
@@ -7704,7 +7920,7 @@
         <v>-0.569885751969472</v>
       </c>
       <c r="R69" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q69))</f>
+        <f aca="false">1/(1+EXP(-Q69))</f>
         <v>0.361263187405875</v>
       </c>
       <c r="S69" s="1" t="n">
@@ -7712,11 +7928,11 @@
         <v>1.08646298600118</v>
       </c>
       <c r="T69" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S69))</f>
+        <f aca="false">1/(1+EXP(-S69))</f>
         <v>0.747715093851193</v>
       </c>
       <c r="U69" s="1" t="n">
-        <f aca="false"> 1/2 * (A69 - R69) ^ 2</f>
+        <f aca="false">1/2 * (A69 - R69) ^ 2</f>
         <v>0.0616929134132675</v>
       </c>
       <c r="V69" s="1" t="n">
@@ -7724,7 +7940,7 @@
         <v>0.0293509878737681</v>
       </c>
       <c r="W69" s="1" t="n">
-        <f aca="false"> (U69+V69)</f>
+        <f aca="false">(U69+V69)</f>
         <v>0.0910439012870356</v>
       </c>
       <c r="X69" s="1" t="n">
@@ -7793,16 +8009,16 @@
         <f aca="false">(E70*C70 + F70 * D70)</f>
         <v>0.0306328371986979</v>
       </c>
-      <c r="J70" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I70))</f>
+      <c r="J70" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I70))</f>
         <v>0.507657610502586</v>
       </c>
       <c r="K70" s="1" t="n">
         <f aca="false">(G70 * C70 + H70 * D70)</f>
         <v>0.0455220059798093</v>
       </c>
-      <c r="L70" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K70))</f>
+      <c r="L70" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K70))</f>
         <v>0.511378536628897</v>
       </c>
       <c r="M70" s="1" t="n">
@@ -7826,7 +8042,7 @@
         <v>-0.590968107956524</v>
       </c>
       <c r="R70" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q70))</f>
+        <f aca="false">1/(1+EXP(-Q70))</f>
         <v>0.35641275622927</v>
       </c>
       <c r="S70" s="1" t="n">
@@ -7834,11 +8050,11 @@
         <v>1.09840571200043</v>
       </c>
       <c r="T70" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S70))</f>
+        <f aca="false">1/(1+EXP(-S70))</f>
         <v>0.749961264874504</v>
       </c>
       <c r="U70" s="1" t="n">
-        <f aca="false"> 1/2 * (A70 - R70) ^ 2</f>
+        <f aca="false">1/2 * (A70 - R70) ^ 2</f>
         <v>0.0600008988391798</v>
       </c>
       <c r="V70" s="1" t="n">
@@ -7846,7 +8062,7 @@
         <v>0.0288092971803239</v>
       </c>
       <c r="W70" s="1" t="n">
-        <f aca="false"> (U70+V70)</f>
+        <f aca="false">(U70+V70)</f>
         <v>0.0888101960195037</v>
       </c>
       <c r="X70" s="1" t="n">
@@ -7915,16 +8131,16 @@
         <f aca="false">(E71*C71 + F71 * D71)</f>
         <v>0.0307813620721584</v>
       </c>
-      <c r="J71" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I71))</f>
+      <c r="J71" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I71))</f>
         <v>0.507694732969312</v>
       </c>
       <c r="K71" s="1" t="n">
         <f aca="false">(G71 * C71 + H71 * D71)</f>
         <v>0.0456689989862488</v>
       </c>
-      <c r="L71" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K71))</f>
+      <c r="L71" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K71))</f>
         <v>0.511415265787664</v>
       </c>
       <c r="M71" s="1" t="n">
@@ -7948,7 +8164,7 @@
         <v>-0.611641509622009</v>
       </c>
       <c r="R71" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q71))</f>
+        <f aca="false">1/(1+EXP(-Q71))</f>
         <v>0.351684838378742</v>
       </c>
       <c r="S71" s="1" t="n">
@@ -7956,11 +8172,11 @@
         <v>1.1101717827776</v>
       </c>
       <c r="T71" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S71))</f>
+        <f aca="false">1/(1+EXP(-S71))</f>
         <v>0.752161135672225</v>
       </c>
       <c r="U71" s="1" t="n">
-        <f aca="false"> 1/2 * (A71 - R71) ^ 2</f>
+        <f aca="false">1/2 * (A71 - R71) ^ 2</f>
         <v>0.0583742643889534</v>
       </c>
       <c r="V71" s="1" t="n">
@@ -7968,7 +8184,7 @@
         <v>0.0282836626923628</v>
       </c>
       <c r="W71" s="1" t="n">
-        <f aca="false"> (U71+V71)</f>
+        <f aca="false">(U71+V71)</f>
         <v>0.0866579270813162</v>
       </c>
       <c r="X71" s="1" t="n">
@@ -8037,16 +8253,16 @@
         <f aca="false">(E72*C72 + F72 * D72)</f>
         <v>0.0309305624904549</v>
       </c>
-      <c r="J72" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I72))</f>
+      <c r="J72" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I72))</f>
         <v>0.507732024197009</v>
       </c>
       <c r="K72" s="1" t="n">
         <f aca="false">(G72 * C72 + H72 * D72)</f>
         <v>0.0458167375579107</v>
       </c>
-      <c r="L72" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K72))</f>
+      <c r="L72" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K72))</f>
         <v>0.511452181116694</v>
       </c>
       <c r="M72" s="1" t="n">
@@ -8070,7 +8286,7 @@
         <v>-0.631915556652616</v>
       </c>
       <c r="R72" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q72))</f>
+        <f aca="false">1/(1+EXP(-Q72))</f>
         <v>0.347076318121361</v>
       </c>
       <c r="S72" s="1" t="n">
@@ -8078,11 +8294,11 @@
         <v>1.12176544770252</v>
       </c>
       <c r="T72" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S72))</f>
+        <f aca="false">1/(1+EXP(-S72))</f>
         <v>0.754316042010959</v>
       </c>
       <c r="U72" s="1" t="n">
-        <f aca="false"> 1/2 * (A72 - R72) ^ 2</f>
+        <f aca="false">1/2 * (A72 - R72) ^ 2</f>
         <v>0.0568102221191263</v>
       </c>
       <c r="V72" s="1" t="n">
@@ -8090,7 +8306,7 @@
         <v>0.0277734640266901</v>
       </c>
       <c r="W72" s="1" t="n">
-        <f aca="false"> (U72+V72)</f>
+        <f aca="false">(U72+V72)</f>
         <v>0.0845836861458164</v>
       </c>
       <c r="X72" s="1" t="n">
@@ -8159,16 +8375,16 @@
         <f aca="false">(E73*C73 + F73 * D73)</f>
         <v>0.0310803224746351</v>
       </c>
-      <c r="J73" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I73))</f>
+      <c r="J73" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I73))</f>
         <v>0.507769455196361</v>
       </c>
       <c r="K73" s="1" t="n">
         <f aca="false">(G73 * C73 + H73 * D73)</f>
         <v>0.0459651033287379</v>
       </c>
-      <c r="L73" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K73))</f>
+      <c r="L73" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K73))</f>
         <v>0.511489253037809</v>
       </c>
       <c r="M73" s="1" t="n">
@@ -8177,7 +8393,7 @@
       </c>
       <c r="N73" s="1" t="n">
         <f aca="false">N72- $H$32*AC72</f>
-        <v>-0.618465519557487</v>
+        <v>-0.618465519557488</v>
       </c>
       <c r="O73" s="1" t="n">
         <f aca="false">O72- $H$32*AD72</f>
@@ -8192,7 +8408,7 @@
         <v>-0.651799793867494</v>
       </c>
       <c r="R73" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q73))</f>
+        <f aca="false">1/(1+EXP(-Q73))</f>
         <v>0.342584072579992</v>
       </c>
       <c r="S73" s="1" t="n">
@@ -8200,11 +8416,11 @@
         <v>1.13319082780123</v>
       </c>
       <c r="T73" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S73))</f>
+        <f aca="false">1/(1+EXP(-S73))</f>
         <v>0.756427274250549</v>
       </c>
       <c r="U73" s="1" t="n">
-        <f aca="false"> 1/2 * (A73 - R73) ^ 2</f>
+        <f aca="false">1/2 * (A73 - R73) ^ 2</f>
         <v>0.0553060826669466</v>
       </c>
       <c r="V73" s="1" t="n">
@@ -8212,7 +8428,7 @@
         <v>0.0272781091070141</v>
       </c>
       <c r="W73" s="1" t="n">
-        <f aca="false"> (U73+V73)</f>
+        <f aca="false">(U73+V73)</f>
         <v>0.0825841917739607</v>
       </c>
       <c r="X73" s="1" t="n">
@@ -8281,16 +8497,16 @@
         <f aca="false">(E74*C74 + F74 * D74)</f>
         <v>0.0312305339210071</v>
       </c>
-      <c r="J74" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I74))</f>
+      <c r="J74" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I74))</f>
         <v>0.507806998946638</v>
       </c>
       <c r="K74" s="1" t="n">
         <f aca="false">(G74 * C74 + H74 * D74)</f>
         <v>0.0461139858522072</v>
       </c>
-      <c r="L74" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K74))</f>
+      <c r="L74" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K74))</f>
         <v>0.511526453952043</v>
       </c>
       <c r="M74" s="1" t="n">
@@ -8299,7 +8515,7 @@
       </c>
       <c r="N74" s="1" t="n">
         <f aca="false">N73- $H$32*AC73</f>
-        <v>-0.637621983833795</v>
+        <v>-0.637621983833796</v>
       </c>
       <c r="O74" s="1" t="n">
         <f aca="false">O73- $H$32*AD73</f>
@@ -8314,7 +8530,7 @@
         <v>-0.671303684578184</v>
       </c>
       <c r="R74" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q74))</f>
+        <f aca="false">1/(1+EXP(-Q74))</f>
         <v>0.338204985501142</v>
       </c>
       <c r="S74" s="1" t="n">
@@ -8322,11 +8538,11 @@
         <v>1.14445191991528</v>
       </c>
       <c r="T74" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S74))</f>
+        <f aca="false">1/(1+EXP(-S74))</f>
         <v>0.758496078915562</v>
       </c>
       <c r="U74" s="1" t="n">
-        <f aca="false"> 1/2 * (A74 - R74) ^ 2</f>
+        <f aca="false">1/2 * (A74 - R74) ^ 2</f>
         <v>0.0538592562539024</v>
       </c>
       <c r="V74" s="1" t="n">
@@ -8334,7 +8550,7 @@
         <v>0.0267970327387349</v>
       </c>
       <c r="W74" s="1" t="n">
-        <f aca="false"> (U74+V74)</f>
+        <f aca="false">(U74+V74)</f>
         <v>0.0806562889926373</v>
       </c>
       <c r="X74" s="1" t="n">
@@ -8403,16 +8619,16 @@
         <f aca="false">(E75*C75 + F75 * D75)</f>
         <v>0.0313810961774834</v>
       </c>
-      <c r="J75" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I75))</f>
+      <c r="J75" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I75))</f>
         <v>0.507844630289799</v>
       </c>
       <c r="K75" s="1" t="n">
         <f aca="false">(G75 * C75 + H75 * D75)</f>
         <v>0.0462632821823765</v>
       </c>
-      <c r="L75" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K75))</f>
+      <c r="L75" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K75))</f>
         <v>0.511563758134939</v>
       </c>
       <c r="M75" s="1" t="n">
@@ -8436,7 +8652,7 @@
         <v>-0.69043658763452</v>
       </c>
       <c r="R75" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q75))</f>
+        <f aca="false">1/(1+EXP(-Q75))</f>
         <v>0.333935959193353</v>
       </c>
       <c r="S75" s="1" t="n">
@@ -8444,11 +8660,11 @@
         <v>1.15555260075076</v>
       </c>
       <c r="T75" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S75))</f>
+        <f aca="false">1/(1+EXP(-S75))</f>
         <v>0.760523660227876</v>
       </c>
       <c r="U75" s="1" t="n">
-        <f aca="false"> 1/2 * (A75 - R75) ^ 2</f>
+        <f aca="false">1/2 * (A75 - R75) ^ 2</f>
         <v>0.0524672528292589</v>
       </c>
       <c r="V75" s="1" t="n">
@@ -8456,7 +8672,7 @@
         <v>0.0263296952576057</v>
       </c>
       <c r="W75" s="1" t="n">
-        <f aca="false"> (U75+V75)</f>
+        <f aca="false">(U75+V75)</f>
         <v>0.0787969480868646</v>
       </c>
       <c r="X75" s="1" t="n">
@@ -8525,16 +8741,16 @@
         <f aca="false">(E76*C76 + F76 * D76)</f>
         <v>0.0315319156305784</v>
       </c>
-      <c r="J76" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I76))</f>
+      <c r="J76" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I76))</f>
         <v>0.507882325827242</v>
       </c>
       <c r="K76" s="1" t="n">
         <f aca="false">(G76 * C76 + H76 * D76)</f>
         <v>0.04641289646467</v>
       </c>
-      <c r="L76" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K76))</f>
+      <c r="L76" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K76))</f>
         <v>0.511601141634268</v>
       </c>
       <c r="M76" s="1" t="n">
@@ -8558,7 +8774,7 @@
         <v>-0.709207737818876</v>
       </c>
       <c r="R76" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q76))</f>
+        <f aca="false">1/(1+EXP(-Q76))</f>
         <v>0.32977392479949</v>
       </c>
       <c r="S76" s="1" t="n">
@@ -8566,11 +8782,11 @@
         <v>1.16649663081549</v>
       </c>
       <c r="T76" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S76))</f>
+        <f aca="false">1/(1+EXP(-S76))</f>
         <v>0.762511181598791</v>
       </c>
       <c r="U76" s="1" t="n">
-        <f aca="false"> 1/2 * (A76 - R76) ^ 2</f>
+        <f aca="false">1/2 * (A76 - R76) ^ 2</f>
         <v>0.0511276814908349</v>
       </c>
       <c r="V76" s="1" t="n">
@@ -8578,7 +8794,7 @@
         <v>0.0258755812487891</v>
       </c>
       <c r="W76" s="1" t="n">
-        <f aca="false"> (U76+V76)</f>
+        <f aca="false">(U76+V76)</f>
         <v>0.0770032627396239</v>
       </c>
       <c r="X76" s="1" t="n">
@@ -8647,16 +8863,16 @@
         <f aca="false">(E77*C77 + F77 * D77)</f>
         <v>0.0316829053049197</v>
       </c>
-      <c r="J77" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I77))</f>
+      <c r="J77" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I77))</f>
         <v>0.507920063819693</v>
       </c>
       <c r="K77" s="1" t="n">
         <f aca="false">(G77 * C77 + H77 * D77)</f>
         <v>0.0465627395383667</v>
       </c>
-      <c r="L77" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K77))</f>
+      <c r="L77" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K77))</f>
         <v>0.511638582170685</v>
       </c>
       <c r="M77" s="1" t="n">
@@ -8665,7 +8881,7 @@
       </c>
       <c r="N77" s="1" t="n">
         <f aca="false">N76- $H$32*AC76</f>
-        <v>-0.69291884607406</v>
+        <v>-0.692918846074061</v>
       </c>
       <c r="O77" s="1" t="n">
         <f aca="false">O76- $H$32*AD76</f>
@@ -8680,7 +8896,7 @@
         <v>-0.727626229268124</v>
       </c>
       <c r="R77" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q77))</f>
+        <f aca="false">1/(1+EXP(-Q77))</f>
         <v>0.325715851059691</v>
       </c>
       <c r="S77" s="1" t="n">
@@ -8688,11 +8904,11 @@
         <v>1.17728765824357</v>
       </c>
       <c r="T77" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S77))</f>
+        <f aca="false">1/(1+EXP(-S77))</f>
         <v>0.764459767079544</v>
       </c>
       <c r="U77" s="1" t="n">
-        <f aca="false"> 1/2 * (A77 - R77) ^ 2</f>
+        <f aca="false">1/2 * (A77 - R77) ^ 2</f>
         <v>0.0498382493051724</v>
       </c>
       <c r="V77" s="1" t="n">
@@ -8700,7 +8916,7 @@
         <v>0.0254341983329068</v>
       </c>
       <c r="W77" s="1" t="n">
-        <f aca="false"> (U77+V77)</f>
+        <f aca="false">(U77+V77)</f>
         <v>0.0752724476380792</v>
       </c>
       <c r="X77" s="1" t="n">
@@ -8769,16 +8985,16 @@
         <f aca="false">(E78*C78 + F78 * D78)</f>
         <v>0.0318339844766793</v>
       </c>
-      <c r="J78" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I78))</f>
+      <c r="J78" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I78))</f>
         <v>0.507957824090573</v>
       </c>
       <c r="K78" s="1" t="n">
         <f aca="false">(G78 * C78 + H78 * D78)</f>
         <v>0.0467127285522946</v>
       </c>
-      <c r="L78" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K78))</f>
+      <c r="L78" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K78))</f>
         <v>0.511676059041673</v>
       </c>
       <c r="M78" s="1" t="n">
@@ -8802,7 +9018,7 @@
         <v>-0.745701001621415</v>
       </c>
       <c r="R78" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q78))</f>
+        <f aca="false">1/(1+EXP(-Q78))</f>
         <v>0.321758751713758</v>
       </c>
       <c r="S78" s="1" t="n">
@@ -8810,11 +9026,11 @@
         <v>1.18792922250704</v>
       </c>
       <c r="T78" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S78))</f>
+        <f aca="false">1/(1+EXP(-S78))</f>
         <v>0.766370502769485</v>
       </c>
       <c r="U78" s="1" t="n">
-        <f aca="false"> 1/2 * (A78 - R78) ^ 2</f>
+        <f aca="false">1/2 * (A78 - R78) ^ 2</f>
         <v>0.0485967596350602</v>
       </c>
       <c r="V78" s="1" t="n">
@@ -8822,7 +9038,7 @@
         <v>0.0250050760157865</v>
       </c>
       <c r="W78" s="1" t="n">
-        <f aca="false"> (U78+V78)</f>
+        <f aca="false">(U78+V78)</f>
         <v>0.0736018356508467</v>
       </c>
       <c r="X78" s="1" t="n">
@@ -8891,16 +9107,16 @@
         <f aca="false">(E79*C79 + F79 * D79)</f>
         <v>0.0319850783019441</v>
       </c>
-      <c r="J79" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I79))</f>
+      <c r="J79" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I79))</f>
         <v>0.507995587933098</v>
       </c>
       <c r="K79" s="1" t="n">
         <f aca="false">(G79 * C79 + H79 * D79)</f>
         <v>0.0468627865948368</v>
       </c>
-      <c r="L79" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K79))</f>
+      <c r="L79" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K79))</f>
         <v>0.51171355302908</v>
       </c>
       <c r="M79" s="1" t="n">
@@ -8924,7 +9140,7 @@
         <v>-0.763440828611663</v>
       </c>
       <c r="R79" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q79))</f>
+        <f aca="false">1/(1+EXP(-Q79))</f>
         <v>0.317899691682861</v>
       </c>
       <c r="S79" s="1" t="n">
@@ -8932,11 +9148,11 @@
         <v>1.19842475801527</v>
       </c>
       <c r="T79" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S79))</f>
+        <f aca="false">1/(1+EXP(-S79))</f>
         <v>0.768244438181541</v>
       </c>
       <c r="U79" s="1" t="n">
-        <f aca="false"> 1/2 * (A79 - R79) ^ 2</f>
+        <f aca="false">1/2 * (A79 - R79) ^ 2</f>
         <v>0.0474011100692003</v>
       </c>
       <c r="V79" s="1" t="n">
@@ -8944,7 +9160,7 @@
         <v>0.0245877645987101</v>
       </c>
       <c r="W79" s="1" t="n">
-        <f aca="false"> (U79+V79)</f>
+        <f aca="false">(U79+V79)</f>
         <v>0.0719888746679104</v>
       </c>
       <c r="X79" s="1" t="n">
@@ -8961,7 +9177,7 @@
       </c>
       <c r="AA79" s="1" t="n">
         <f aca="false">((R79-A79)*R79*(1-R79)*N79+(T79-B79)*T79*(1-T79)*P79)*L79*(1-L79)*D79</f>
-        <v>-0.00240089190690271</v>
+        <v>-0.00240089190690272</v>
       </c>
       <c r="AB79" s="1" t="n">
         <f aca="false">(R79-A79)*R79*(1 - R79)*J79</f>
@@ -9013,16 +9229,16 @@
         <f aca="false">(E80*C80 + F80 * D80)</f>
         <v>0.0321361174607108</v>
       </c>
-      <c r="J80" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I80))</f>
+      <c r="J80" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I80))</f>
         <v>0.508033338021282</v>
       </c>
       <c r="K80" s="1" t="n">
         <f aca="false">(G80 * C80 + H80 * D80)</f>
         <v>0.0470128423390182</v>
       </c>
-      <c r="L80" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K80))</f>
+      <c r="L80" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K80))</f>
         <v>0.511751046310406</v>
       </c>
       <c r="M80" s="1" t="n">
@@ -9046,7 +9262,7 @@
         <v>-0.780854308838805</v>
       </c>
       <c r="R80" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q80))</f>
+        <f aca="false">1/(1+EXP(-Q80))</f>
         <v>0.314135792161011</v>
       </c>
       <c r="S80" s="1" t="n">
@@ -9054,11 +9270,11 @@
         <v>1.20877759760292</v>
       </c>
       <c r="T80" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S80))</f>
+        <f aca="false">1/(1+EXP(-S80))</f>
         <v>0.770082587564844</v>
       </c>
       <c r="U80" s="1" t="n">
-        <f aca="false"> 1/2 * (A80 - R80) ^ 2</f>
+        <f aca="false">1/2 * (A80 - R80) ^ 2</f>
         <v>0.0462492900367028</v>
       </c>
       <c r="V80" s="1" t="n">
@@ -9066,7 +9282,7 @@
         <v>0.0241818341460873</v>
       </c>
       <c r="W80" s="1" t="n">
-        <f aca="false"> (U80+V80)</f>
+        <f aca="false">(U80+V80)</f>
         <v>0.0704311241827901</v>
       </c>
       <c r="X80" s="1" t="n">
@@ -9135,16 +9351,16 @@
         <f aca="false">(E81*C81 + F81 * D81)</f>
         <v>0.0322870378169158</v>
       </c>
-      <c r="J81" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I81))</f>
+      <c r="J81" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I81))</f>
         <v>0.508071058324957</v>
       </c>
       <c r="K81" s="1" t="n">
         <f aca="false">(G81 * C81 + H81 * D81)</f>
         <v>0.0471628297031533</v>
       </c>
-      <c r="L81" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K81))</f>
+      <c r="L81" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K81))</f>
         <v>0.511788522373999</v>
       </c>
       <c r="M81" s="1" t="n">
@@ -9153,7 +9369,7 @@
       </c>
       <c r="N81" s="1" t="n">
         <f aca="false">N80- $H$32*AC80</f>
-        <v>-0.761912192936444</v>
+        <v>-0.761912192936445</v>
       </c>
       <c r="O81" s="1" t="n">
         <f aca="false">O80- $H$32*AD80</f>
@@ -9168,7 +9384,7 @@
         <v>-0.797949858483063</v>
       </c>
       <c r="R81" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q81))</f>
+        <f aca="false">1/(1+EXP(-Q81))</f>
         <v>0.310464234737109</v>
       </c>
       <c r="S81" s="1" t="n">
@@ -9176,11 +9392,11 @@
         <v>1.21899097590782</v>
       </c>
       <c r="T81" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S81))</f>
+        <f aca="false">1/(1+EXP(-S81))</f>
         <v>0.771885931184653</v>
       </c>
       <c r="U81" s="1" t="n">
-        <f aca="false"> 1/2 * (A81 - R81) ^ 2</f>
+        <f aca="false">1/2 * (A81 - R81) ^ 2</f>
         <v>0.0451393781780783</v>
       </c>
       <c r="V81" s="1" t="n">
@@ -9188,7 +9404,7 @@
         <v>0.0237868735075929</v>
       </c>
       <c r="W81" s="1" t="n">
-        <f aca="false"> (U81+V81)</f>
+        <f aca="false">(U81+V81)</f>
         <v>0.0689262516856713</v>
       </c>
       <c r="X81" s="1" t="n">
@@ -9257,16 +9473,16 @@
         <f aca="false">(E82*C82 + F82 * D82)</f>
         <v>0.032437780094675</v>
       </c>
-      <c r="J82" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I82))</f>
+      <c r="J82" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I82))</f>
         <v>0.508108734028837</v>
       </c>
       <c r="K82" s="1" t="n">
         <f aca="false">(G82 * C82 + H82 * D82)</f>
         <v>0.0473126875272962</v>
       </c>
-      <c r="L82" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K82))</f>
+      <c r="L82" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K82))</f>
         <v>0.511825965938186</v>
       </c>
       <c r="M82" s="1" t="n">
@@ -9290,7 +9506,7 @@
         <v>-0.814735705736208</v>
       </c>
       <c r="R82" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q82))</f>
+        <f aca="false">1/(1+EXP(-Q82))</f>
         <v>0.306882264658743</v>
       </c>
       <c r="S82" s="1" t="n">
@@ -9298,11 +9514,11 @@
         <v>1.22906803264045</v>
       </c>
       <c r="T82" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S82))</f>
+        <f aca="false">1/(1+EXP(-S82))</f>
         <v>0.773655416559919</v>
       </c>
       <c r="U82" s="1" t="n">
-        <f aca="false"> 1/2 * (A82 - R82) ^ 2</f>
+        <f aca="false">1/2 * (A82 - R82) ^ 2</f>
         <v>0.044069539534452</v>
       </c>
       <c r="V82" s="1" t="n">
@@ -9310,7 +9526,7 @@
         <v>0.0234024893919311</v>
       </c>
       <c r="W82" s="1" t="n">
-        <f aca="false"> (U82+V82)</f>
+        <f aca="false">(U82+V82)</f>
         <v>0.0674720289263831</v>
       </c>
       <c r="X82" s="1" t="n">
@@ -9379,16 +9595,16 @@
         <f aca="false">(E83*C83 + F83 * D83)</f>
         <v>0.0325882895707173</v>
       </c>
-      <c r="J83" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I83))</f>
+      <c r="J83" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I83))</f>
         <v>0.508146351455632</v>
       </c>
       <c r="K83" s="1" t="n">
         <f aca="false">(G83 * C83 + H83 * D83)</f>
         <v>0.047462359265536</v>
       </c>
-      <c r="L83" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K83))</f>
+      <c r="L83" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K83))</f>
         <v>0.511863362874371</v>
       </c>
       <c r="M83" s="1" t="n">
@@ -9412,7 +9628,7 @@
         <v>-0.831219886747896</v>
       </c>
       <c r="R83" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q83))</f>
+        <f aca="false">1/(1+EXP(-Q83))</f>
         <v>0.303387193339475</v>
       </c>
       <c r="S83" s="1" t="n">
@@ -9420,11 +9636,11 @@
         <v>1.23901181574695</v>
       </c>
       <c r="T83" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S83))</f>
+        <f aca="false">1/(1+EXP(-S83))</f>
         <v>0.775391959658963</v>
       </c>
       <c r="U83" s="1" t="n">
-        <f aca="false"> 1/2 * (A83 - R83) ^ 2</f>
+        <f aca="false">1/2 * (A83 - R83) ^ 2</f>
         <v>0.0430380226078072</v>
       </c>
       <c r="V83" s="1" t="n">
@@ -9432,7 +9648,7 @@
         <v>0.0230283054895101</v>
       </c>
       <c r="W83" s="1" t="n">
-        <f aca="false"> (U83+V83)</f>
+        <f aca="false">(U83+V83)</f>
         <v>0.0660663280973173</v>
       </c>
       <c r="X83" s="1" t="n">
@@ -9501,16 +9717,16 @@
         <f aca="false">(E84*C84 + F84 * D84)</f>
         <v>0.0327385157828424</v>
       </c>
-      <c r="J84" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I84))</f>
+      <c r="J84" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I84))</f>
         <v>0.508183897993175</v>
       </c>
       <c r="K84" s="1" t="n">
         <f aca="false">(G84 * C84 + H84 * D84)</f>
         <v>0.0476117926940193</v>
       </c>
-      <c r="L84" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K84))</f>
+      <c r="L84" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K84))</f>
         <v>0.511900700134064</v>
       </c>
       <c r="M84" s="1" t="n">
@@ -9534,7 +9750,7 @@
         <v>-0.847410242902419</v>
       </c>
       <c r="R84" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q84))</f>
+        <f aca="false">1/(1+EXP(-Q84))</f>
         <v>0.29997640020227</v>
       </c>
       <c r="S84" s="1" t="n">
@@ -9542,11 +9758,11 @@
         <v>1.24882528446768</v>
       </c>
       <c r="T84" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S84))</f>
+        <f aca="false">1/(1+EXP(-S84))</f>
         <v>0.777096446053923</v>
       </c>
       <c r="U84" s="1" t="n">
-        <f aca="false"> 1/2 * (A84 - R84) ^ 2</f>
+        <f aca="false">1/2 * (A84 - R84) ^ 2</f>
         <v>0.0420431563371337</v>
       </c>
       <c r="V84" s="1" t="n">
@@ -9554,7 +9770,7 @@
         <v>0.022663961641435</v>
       </c>
       <c r="W84" s="1" t="n">
-        <f aca="false"> (U84+V84)</f>
+        <f aca="false">(U84+V84)</f>
         <v>0.0647071179785687</v>
       </c>
       <c r="X84" s="1" t="n">
@@ -9571,7 +9787,7 @@
       </c>
       <c r="AA84" s="1" t="n">
         <f aca="false">((R84-A84)*R84*(1-R84)*N84+(T84-B84)*T84*(1-T84)*P84)*L84*(1-L84)*D84</f>
-        <v>-0.00238635104686187</v>
+        <v>-0.00238635104686188</v>
       </c>
       <c r="AB84" s="1" t="n">
         <f aca="false">(R84-A84)*R84*(1 - R84)*J84</f>
@@ -9623,16 +9839,16 @@
         <f aca="false">(E85*C85 + F85 * D85)</f>
         <v>0.0328884122541033</v>
       </c>
-      <c r="J85" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I85))</f>
+      <c r="J85" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I85))</f>
         <v>0.508221362025468</v>
       </c>
       <c r="K85" s="1" t="n">
         <f aca="false">(G85 * C85 + H85 * D85)</f>
         <v>0.0477609396344482</v>
       </c>
-      <c r="L85" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K85))</f>
+      <c r="L85" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K85))</f>
         <v>0.511937965679774</v>
       </c>
       <c r="M85" s="1" t="n">
@@ -9656,7 +9872,7 @@
         <v>-0.863314419258458</v>
       </c>
       <c r="R85" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q85))</f>
+        <f aca="false">1/(1+EXP(-Q85))</f>
         <v>0.296647333943048</v>
       </c>
       <c r="S85" s="1" t="n">
@@ -9664,11 +9880,11 @@
         <v>1.25851131229378</v>
       </c>
       <c r="T85" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S85))</f>
+        <f aca="false">1/(1+EXP(-S85))</f>
         <v>0.778769732034714</v>
       </c>
       <c r="U85" s="1" t="n">
-        <f aca="false"> 1/2 * (A85 - R85) ^ 2</f>
+        <f aca="false">1/2 * (A85 - R85) ^ 2</f>
         <v>0.0410833470283287</v>
       </c>
       <c r="V85" s="1" t="n">
@@ -9676,7 +9892,7 @@
         <v>0.0223091130523432</v>
       </c>
       <c r="W85" s="1" t="n">
-        <f aca="false"> (U85+V85)</f>
+        <f aca="false">(U85+V85)</f>
         <v>0.063392460080672</v>
       </c>
       <c r="X85" s="1" t="n">
@@ -9745,16 +9961,16 @@
         <f aca="false">(E86*C86 + F86 * D86)</f>
         <v>0.0330379362323214</v>
       </c>
-      <c r="J86" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I86))</f>
+      <c r="J86" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I86))</f>
         <v>0.508258732867569</v>
       </c>
       <c r="K86" s="1" t="n">
         <f aca="false">(G86 * C86 + H86 * D86)</f>
         <v>0.047909755692701</v>
       </c>
-      <c r="L86" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K86))</f>
+      <c r="L86" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K86))</f>
         <v>0.511975148419687</v>
       </c>
       <c r="M86" s="1" t="n">
@@ -9778,7 +9994,7 @@
         <v>-0.878939864000626</v>
       </c>
       <c r="R86" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q86))</f>
+        <f aca="false">1/(1+EXP(-Q86))</f>
         <v>0.293397513290149</v>
       </c>
       <c r="S86" s="1" t="n">
@@ -9786,11 +10002,11 @@
         <v>1.26807268982402</v>
       </c>
       <c r="T86" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S86))</f>
+        <f aca="false">1/(1+EXP(-S86))</f>
         <v>0.78041264568333</v>
       </c>
       <c r="U86" s="1" t="n">
-        <f aca="false"> 1/2 * (A86 - R86) ^ 2</f>
+        <f aca="false">1/2 * (A86 - R86) ^ 2</f>
         <v>0.0401570752695201</v>
       </c>
       <c r="V86" s="1" t="n">
@@ -9798,7 +10014,7 @@
         <v>0.0219634295447307</v>
       </c>
       <c r="W86" s="1" t="n">
-        <f aca="false"> (U86+V86)</f>
+        <f aca="false">(U86+V86)</f>
         <v>0.0621205048142508</v>
       </c>
       <c r="X86" s="1" t="n">
@@ -9867,16 +10083,16 @@
         <f aca="false">(E87*C87 + F87 * D87)</f>
         <v>0.0331870484444616</v>
       </c>
-      <c r="J87" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I87))</f>
+      <c r="J87" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I87))</f>
         <v>0.508296000704193</v>
       </c>
       <c r="K87" s="1" t="n">
         <f aca="false">(G87 * C87 + H87 * D87)</f>
         <v>0.0480582000121419</v>
       </c>
-      <c r="L87" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K87))</f>
+      <c r="L87" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K87))</f>
         <v>0.512012238146011</v>
       </c>
       <c r="M87" s="1" t="n">
@@ -9900,7 +10116,7 @@
         <v>-0.894293828766702</v>
       </c>
       <c r="R87" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q87))</f>
+        <f aca="false">1/(1+EXP(-Q87))</f>
         <v>0.290224527327887</v>
       </c>
       <c r="S87" s="1" t="n">
@@ -9908,11 +10124,11 @@
         <v>1.27751212752453</v>
       </c>
       <c r="T87" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S87))</f>
+        <f aca="false">1/(1+EXP(-S87))</f>
         <v>0.782025987909409</v>
       </c>
       <c r="U87" s="1" t="n">
-        <f aca="false"> 1/2 * (A87 - R87) ^ 2</f>
+        <f aca="false">1/2 * (A87 - R87) ^ 2</f>
         <v>0.0392628928580687</v>
       </c>
       <c r="V87" s="1" t="n">
@@ -9920,7 +10136,7 @@
         <v>0.0216265948525286</v>
       </c>
       <c r="W87" s="1" t="n">
-        <f aca="false"> (U87+V87)</f>
+        <f aca="false">(U87+V87)</f>
         <v>0.0608894877105974</v>
       </c>
       <c r="X87" s="1" t="n">
@@ -9929,7 +10145,7 @@
       </c>
       <c r="Y87" s="1" t="n">
         <f aca="false">(((R87-A87)*R87*(1-R87)*M87)+((T87-B87)*T87*(1-T87)*O87))*J87*(1-J87)*D87</f>
-        <v>-0.00237863073409136</v>
+        <v>-0.00237863073409135</v>
       </c>
       <c r="Z87" s="1" t="n">
         <f aca="false">((R87-A87)*R87*(1-R87)*N87+(T87-B87)*T87*(1-T87)*P87)*L87*(1-L87)*C87</f>
@@ -9989,16 +10205,16 @@
         <f aca="false">(E88*C88 + F88 * D88)</f>
         <v>0.0333357128653423</v>
       </c>
-      <c r="J88" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I88))</f>
+      <c r="J88" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I88))</f>
         <v>0.508333156531895</v>
       </c>
       <c r="K88" s="1" t="n">
         <f aca="false">(G88 * C88 + H88 * D88)</f>
         <v>0.0482062350411242</v>
       </c>
-      <c r="L88" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K88))</f>
+      <c r="L88" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K88))</f>
         <v>0.51204922547687</v>
       </c>
       <c r="M88" s="1" t="n">
@@ -10007,7 +10223,7 @@
       </c>
       <c r="N88" s="1" t="n">
         <f aca="false">N87- $H$32*AC87</f>
-        <v>-0.871113858933371</v>
+        <v>-0.871113858933372</v>
       </c>
       <c r="O88" s="1" t="n">
         <f aca="false">O87- $H$32*AD87</f>
@@ -10022,7 +10238,7 @@
         <v>-0.909383369728398</v>
       </c>
       <c r="R88" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q88))</f>
+        <f aca="false">1/(1+EXP(-Q88))</f>
         <v>0.287126035445243</v>
       </c>
       <c r="S88" s="1" t="n">
@@ -10030,11 +10246,11 @@
         <v>1.28683225839391</v>
       </c>
       <c r="T88" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S88))</f>
+        <f aca="false">1/(1+EXP(-S88))</f>
         <v>0.78361053344803</v>
       </c>
       <c r="U88" s="1" t="n">
-        <f aca="false"> 1/2 * (A88 - R88) ^ 2</f>
+        <f aca="false">1/2 * (A88 - R88) ^ 2</f>
         <v>0.038399419760799</v>
       </c>
       <c r="V88" s="1" t="n">
@@ -10042,12 +10258,12 @@
         <v>0.0212983059518033</v>
       </c>
       <c r="W88" s="1" t="n">
-        <f aca="false"> (U88+V88)</f>
+        <f aca="false">(U88+V88)</f>
         <v>0.0596977257126024</v>
       </c>
       <c r="X88" s="1" t="n">
         <f aca="false">(((R88-A88)*R88*(1-R88)*M88)+((T88-B88)*T88*(1-T88)*O88))*J88*(1-J88)*C88</f>
-        <v>-0.00118546907816536</v>
+        <v>-0.00118546907816535</v>
       </c>
       <c r="Y88" s="1" t="n">
         <f aca="false">(((R88-A88)*R88*(1-R88)*M88)+((T88-B88)*T88*(1-T88)*O88))*J88*(1-J88)*D88</f>
@@ -10111,16 +10327,16 @@
         <f aca="false">(E89*C89 + F89 * D89)</f>
         <v>0.033483896500113</v>
       </c>
-      <c r="J89" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I89))</f>
+      <c r="J89" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I89))</f>
         <v>0.508370192104693</v>
       </c>
       <c r="K89" s="1" t="n">
         <f aca="false">(G89 * C89 + H89 * D89)</f>
         <v>0.0483538263141493</v>
       </c>
-      <c r="L89" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K89))</f>
+      <c r="L89" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K89))</f>
         <v>0.512086101801613</v>
       </c>
       <c r="M89" s="1" t="n">
@@ -10144,7 +10360,7 @@
         <v>-0.924215349316423</v>
       </c>
       <c r="R89" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q89))</f>
+        <f aca="false">1/(1+EXP(-Q89))</f>
         <v>0.284099766964217</v>
       </c>
       <c r="S89" s="1" t="n">
@@ -10152,11 +10368,11 @@
         <v>1.29603564053651</v>
       </c>
       <c r="T89" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S89))</f>
+        <f aca="false">1/(1+EXP(-S89))</f>
         <v>0.785167031820739</v>
       </c>
       <c r="U89" s="1" t="n">
-        <f aca="false"> 1/2 * (A89 - R89) ^ 2</f>
+        <f aca="false">1/2 * (A89 - R89) ^ 2</f>
         <v>0.037565341124919</v>
       </c>
       <c r="V89" s="1" t="n">
@@ -10164,7 +10380,7 @@
         <v>0.0209782724265631</v>
       </c>
       <c r="W89" s="1" t="n">
-        <f aca="false"> (U89+V89)</f>
+        <f aca="false">(U89+V89)</f>
         <v>0.0585436135514821</v>
       </c>
       <c r="X89" s="1" t="n">
@@ -10233,16 +10449,16 @@
         <f aca="false">(E90*C90 + F90 * D90)</f>
         <v>0.0336315691799069</v>
       </c>
-      <c r="J90" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I90))</f>
+      <c r="J90" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I90))</f>
         <v>0.50840709988299</v>
       </c>
       <c r="K90" s="1" t="n">
         <f aca="false">(G90 * C90 + H90 * D90)</f>
         <v>0.0485009422461128</v>
       </c>
-      <c r="L90" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K90))</f>
+      <c r="L90" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K90))</f>
         <v>0.512122859229389</v>
       </c>
       <c r="M90" s="1" t="n">
@@ -10266,7 +10482,7 @@
         <v>-0.938796438492392</v>
       </c>
       <c r="R90" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q90))</f>
+        <f aca="false">1/(1+EXP(-Q90))</f>
         <v>0.281143520496341</v>
       </c>
       <c r="S90" s="1" t="n">
@@ -10274,11 +10490,11 @@
         <v>1.30512475964629</v>
       </c>
       <c r="T90" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S90))</f>
+        <f aca="false">1/(1+EXP(-S90))</f>
         <v>0.786696208260855</v>
       </c>
       <c r="U90" s="1" t="n">
-        <f aca="false"> 1/2 * (A90 - R90) ^ 2</f>
+        <f aca="false">1/2 * (A90 - R90) ^ 2</f>
         <v>0.0367594043535747</v>
       </c>
       <c r="V90" s="1" t="n">
@@ -10286,7 +10502,7 @@
         <v>0.0206662158677567</v>
       </c>
       <c r="W90" s="1" t="n">
-        <f aca="false"> (U90+V90)</f>
+        <f aca="false">(U90+V90)</f>
         <v>0.0574256202213315</v>
       </c>
       <c r="X90" s="1" t="n">
@@ -10355,16 +10571,16 @@
         <f aca="false">(E91*C91 + F91 * D91)</f>
         <v>0.0337787033700612</v>
       </c>
-      <c r="J91" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I91))</f>
+      <c r="J91" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I91))</f>
         <v>0.508443872985629</v>
       </c>
       <c r="K91" s="1" t="n">
         <f aca="false">(G91 * C91 + H91 * D91)</f>
         <v>0.0486475539390515</v>
       </c>
-      <c r="L91" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K91))</f>
+      <c r="L91" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K91))</f>
         <v>0.512159490540852</v>
       </c>
       <c r="M91" s="1" t="n">
@@ -10381,14 +10597,14 @@
       </c>
       <c r="P91" s="1" t="n">
         <f aca="false">P90- $H$32*AE90</f>
-        <v>1.31526504208191</v>
+        <v>1.31526504208192</v>
       </c>
       <c r="Q91" s="1" t="n">
         <f aca="false">(M91*J91 + N91 * L91)</f>
         <v>-0.95313311948092</v>
       </c>
       <c r="R91" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q91))</f>
+        <f aca="false">1/(1+EXP(-Q91))</f>
         <v>0.278255163070387</v>
       </c>
       <c r="S91" s="1" t="n">
@@ -10396,11 +10612,11 @@
         <v>1.31410203140417</v>
       </c>
       <c r="T91" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S91))</f>
+        <f aca="false">1/(1+EXP(-S91))</f>
         <v>0.788198764604118</v>
       </c>
       <c r="U91" s="1" t="n">
-        <f aca="false"> 1/2 * (A91 - R91) ^ 2</f>
+        <f aca="false">1/2 * (A91 - R91) ^ 2</f>
         <v>0.03598041625696</v>
       </c>
       <c r="V91" s="1" t="n">
@@ -10408,7 +10624,7 @@
         <v>0.0203618693036522</v>
       </c>
       <c r="W91" s="1" t="n">
-        <f aca="false"> (U91+V91)</f>
+        <f aca="false">(U91+V91)</f>
         <v>0.0563422855606121</v>
       </c>
       <c r="X91" s="1" t="n">
@@ -10477,16 +10693,16 @@
         <f aca="false">(E92*C92 + F92 * D92)</f>
         <v>0.0339252739902912</v>
       </c>
-      <c r="J92" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I92))</f>
+      <c r="J92" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I92))</f>
         <v>0.508480505144947</v>
       </c>
       <c r="K92" s="1" t="n">
         <f aca="false">(G92 * C92 + H92 * D92)</f>
         <v>0.0487936350007962</v>
       </c>
-      <c r="L92" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K92))</f>
+      <c r="L92" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K92))</f>
         <v>0.512195989142838</v>
       </c>
       <c r="M92" s="1" t="n">
@@ -10510,7 +10726,7 @@
         <v>-0.967231688885047</v>
       </c>
       <c r="R92" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q92))</f>
+        <f aca="false">1/(1+EXP(-Q92))</f>
         <v>0.275432629069314</v>
       </c>
       <c r="S92" s="1" t="n">
@@ -10518,11 +10734,11 @@
         <v>1.32296980379131</v>
       </c>
       <c r="T92" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S92))</f>
+        <f aca="false">1/(1+EXP(-S92))</f>
         <v>0.789675380145731</v>
       </c>
       <c r="U92" s="1" t="n">
-        <f aca="false"> 1/2 * (A92 - R92) ^ 2</f>
+        <f aca="false">1/2 * (A92 - R92) ^ 2</f>
         <v>0.0352272402873239</v>
       </c>
       <c r="V92" s="1" t="n">
@@ -10530,7 +10746,7 @@
         <v>0.0200649766598787</v>
       </c>
       <c r="W92" s="1" t="n">
-        <f aca="false"> (U92+V92)</f>
+        <f aca="false">(U92+V92)</f>
         <v>0.0552922169472026</v>
       </c>
       <c r="X92" s="1" t="n">
@@ -10539,7 +10755,7 @@
       </c>
       <c r="Y92" s="1" t="n">
         <f aca="false">(((R92-A92)*R92*(1-R92)*M92)+((T92-B92)*T92*(1-T92)*O92))*J92*(1-J92)*D92</f>
-        <v>-0.00233574809464951</v>
+        <v>-0.0023357480946495</v>
       </c>
       <c r="Z92" s="1" t="n">
         <f aca="false">((R92-A92)*R92*(1-R92)*N92+(T92-B92)*T92*(1-T92)*P92)*L92*(1-L92)*C92</f>
@@ -10599,16 +10815,16 @@
         <f aca="false">(E93*C93 + F93 * D93)</f>
         <v>0.0340712582462068</v>
       </c>
-      <c r="J93" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I93))</f>
+      <c r="J93" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I93))</f>
         <v>0.508516990664654</v>
       </c>
       <c r="K93" s="1" t="n">
         <f aca="false">(G93 * C93 + H93 * D93)</f>
         <v>0.0489391613749347</v>
       </c>
-      <c r="L93" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K93))</f>
+      <c r="L93" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K93))</f>
         <v>0.51223234902587</v>
       </c>
       <c r="M93" s="1" t="n">
@@ -10632,7 +10848,7 @@
         <v>-0.981098261117037</v>
       </c>
       <c r="R93" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q93))</f>
+        <f aca="false">1/(1+EXP(-Q93))</f>
         <v>0.272673919009979</v>
       </c>
       <c r="S93" s="1" t="n">
@@ -10640,11 +10856,11 @@
         <v>1.33173035932117</v>
       </c>
       <c r="T93" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S93))</f>
+        <f aca="false">1/(1+EXP(-S93))</f>
         <v>0.791126712464903</v>
       </c>
       <c r="U93" s="1" t="n">
-        <f aca="false"> 1/2 * (A93 - R93) ^ 2</f>
+        <f aca="false">1/2 * (A93 - R93) ^ 2</f>
         <v>0.0344987938640306</v>
       </c>
       <c r="V93" s="1" t="n">
@@ -10652,7 +10868,7 @@
         <v>0.0197752922475086</v>
       </c>
       <c r="W93" s="1" t="n">
-        <f aca="false"> (U93+V93)</f>
+        <f aca="false">(U93+V93)</f>
         <v>0.0542740861115392</v>
       </c>
       <c r="X93" s="1" t="n">
@@ -10721,16 +10937,16 @@
         <f aca="false">(E94*C94 + F94 * D94)</f>
         <v>0.0342166354715673</v>
       </c>
-      <c r="J94" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I94))</f>
+      <c r="J94" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I94))</f>
         <v>0.508553324380405</v>
       </c>
       <c r="K94" s="1" t="n">
         <f aca="false">(G94 * C94 + H94 * D94)</f>
         <v>0.049084111181494</v>
       </c>
-      <c r="L94" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K94))</f>
+      <c r="L94" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K94))</f>
         <v>0.512268564724341</v>
       </c>
       <c r="M94" s="1" t="n">
@@ -10754,7 +10970,7 @@
         <v>-0.994738772084625</v>
       </c>
       <c r="R94" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q94))</f>
+        <f aca="false">1/(1+EXP(-Q94))</f>
         <v>0.269977098195098</v>
       </c>
       <c r="S94" s="1" t="n">
@@ -10762,11 +10978,11 @@
         <v>1.34038591719276</v>
       </c>
       <c r="T94" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S94))</f>
+        <f aca="false">1/(1+EXP(-S94))</f>
         <v>0.792553398217936</v>
       </c>
       <c r="U94" s="1" t="n">
-        <f aca="false"> 1/2 * (A94 - R94) ^ 2</f>
+        <f aca="false">1/2 * (A94 - R94) ^ 2</f>
         <v>0.0337940457929719</v>
       </c>
       <c r="V94" s="1" t="n">
@@ -10774,7 +10990,7 @@
         <v>0.0194925802776424</v>
       </c>
       <c r="W94" s="1" t="n">
-        <f aca="false"> (U94+V94)</f>
+        <f aca="false">(U94+V94)</f>
         <v>0.0532866260706143</v>
       </c>
       <c r="X94" s="1" t="n">
@@ -10843,16 +11059,16 @@
         <f aca="false">(E95*C95 + F95 * D95)</f>
         <v>0.0343613869806837</v>
       </c>
-      <c r="J95" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I95))</f>
+      <c r="J95" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I95))</f>
         <v>0.508589501622903</v>
       </c>
       <c r="K95" s="1" t="n">
         <f aca="false">(G95 * C95 + H95 * D95)</f>
         <v>0.0492284645677633</v>
       </c>
-      <c r="L95" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K95))</f>
+      <c r="L95" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K95))</f>
         <v>0.512304631279235</v>
       </c>
       <c r="M95" s="1" t="n">
@@ -10876,7 +11092,7 @@
         <v>-1.00815898308004</v>
       </c>
       <c r="R95" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q95))</f>
+        <f aca="false">1/(1+EXP(-Q95))</f>
         <v>0.267340295263242</v>
       </c>
       <c r="S95" s="1" t="n">
@@ -10884,19 +11100,19 @@
         <v>1.34893863536776</v>
       </c>
       <c r="T95" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S95))</f>
+        <f aca="false">1/(1+EXP(-S95))</f>
         <v>0.793956053900938</v>
       </c>
       <c r="U95" s="1" t="n">
-        <f aca="false"> 1/2 * (A95 - R95) ^ 2</f>
-        <v>0.0331120137830863</v>
+        <f aca="false">1/2 * (A95 - R95) ^ 2</f>
+        <v>0.0331120137830862</v>
       </c>
       <c r="V95" s="1" t="n">
         <f aca="false">1/2 * (B95-T95) ^ 2</f>
         <v>0.019216614401046</v>
       </c>
       <c r="W95" s="1" t="n">
-        <f aca="false"> (U95+V95)</f>
+        <f aca="false">(U95+V95)</f>
         <v>0.0523286281841322</v>
       </c>
       <c r="X95" s="1" t="n">
@@ -10965,16 +11181,16 @@
         <f aca="false">(E96*C96 + F96 * D96)</f>
         <v>0.034505495930392</v>
       </c>
-      <c r="J96" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I96))</f>
+      <c r="J96" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I96))</f>
         <v>0.508625518183394</v>
       </c>
       <c r="K96" s="1" t="n">
         <f aca="false">(G96 * C96 + H96 * D96)</f>
         <v>0.0493722035686907</v>
       </c>
-      <c r="L96" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K96))</f>
+      <c r="L96" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K96))</f>
         <v>0.512340544203235</v>
       </c>
       <c r="M96" s="1" t="n">
@@ -10998,7 +11214,7 @@
         <v>-1.02136448482562</v>
       </c>
       <c r="R96" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q96))</f>
+        <f aca="false">1/(1+EXP(-Q96))</f>
         <v>0.264761700659418</v>
       </c>
       <c r="S96" s="1" t="n">
@@ -11006,11 +11222,11 @@
         <v>1.3573906125741</v>
       </c>
       <c r="T96" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S96))</f>
+        <f aca="false">1/(1+EXP(-S96))</f>
         <v>0.795335276583215</v>
       </c>
       <c r="U96" s="1" t="n">
-        <f aca="false"> 1/2 * (A96 - R96) ^ 2</f>
+        <f aca="false">1/2 * (A96 - R96) ^ 2</f>
         <v>0.0324517620614395</v>
       </c>
       <c r="V96" s="1" t="n">
@@ -11018,7 +11234,7 @@
         <v>0.0189471772714667</v>
       </c>
       <c r="W96" s="1" t="n">
-        <f aca="false"> (U96+V96)</f>
+        <f aca="false">(U96+V96)</f>
         <v>0.0513989393329062</v>
       </c>
       <c r="X96" s="1" t="n">
@@ -11087,16 +11303,16 @@
         <f aca="false">(E97*C97 + F97 * D97)</f>
         <v>0.034648947191043</v>
       </c>
-      <c r="J97" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I97))</f>
+      <c r="J97" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I97))</f>
         <v>0.508661370281422</v>
       </c>
       <c r="K97" s="1" t="n">
         <f aca="false">(G97 * C97 + H97 * D97)</f>
         <v>0.0495153119763069</v>
       </c>
-      <c r="L97" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K97))</f>
+      <c r="L97" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K97))</f>
         <v>0.512376299448092</v>
       </c>
       <c r="M97" s="1" t="n">
@@ -11120,7 +11336,7 @@
         <v>-1.03436070163568</v>
       </c>
       <c r="R97" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q97))</f>
+        <f aca="false">1/(1+EXP(-Q97))</f>
         <v>0.262239565045831</v>
       </c>
       <c r="S97" s="1" t="n">
@@ -11128,11 +11344,11 @@
         <v>1.36574389023833</v>
       </c>
       <c r="T97" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S97))</f>
+        <f aca="false">1/(1+EXP(-S97))</f>
         <v>0.796691644612378</v>
       </c>
       <c r="U97" s="1" t="n">
-        <f aca="false"> 1/2 * (A97 - R97) ^ 2</f>
+        <f aca="false">1/2 * (A97 - R97) ^ 2</f>
         <v>0.0318123990872549</v>
       </c>
       <c r="V97" s="1" t="n">
@@ -11140,7 +11356,7 @@
         <v>0.0186840601313335</v>
       </c>
       <c r="W97" s="1" t="n">
-        <f aca="false"> (U97+V97)</f>
+        <f aca="false">(U97+V97)</f>
         <v>0.0504964592185884</v>
       </c>
       <c r="X97" s="1" t="n">
@@ -11209,16 +11425,16 @@
         <f aca="false">(E98*C98 + F98 * D98)</f>
         <v>0.0347917272259714</v>
       </c>
-      <c r="J98" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I98))</f>
+      <c r="J98" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I98))</f>
         <v>0.508697054534701</v>
       </c>
       <c r="K98" s="1" t="n">
         <f aca="false">(G98 * C98 + H98 * D98)</f>
         <v>0.0496577752176472</v>
       </c>
-      <c r="L98" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K98))</f>
+      <c r="L98" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K98))</f>
         <v>0.512411893374117</v>
       </c>
       <c r="M98" s="1" t="n">
@@ -11242,7 +11458,7 @@
         <v>-1.04715289565956</v>
       </c>
       <c r="R98" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q98))</f>
+        <f aca="false">1/(1+EXP(-Q98))</f>
         <v>0.259772197669802</v>
       </c>
       <c r="S98" s="1" t="n">
@@ -11250,11 +11466,11 @@
         <v>1.37400045434939</v>
       </c>
       <c r="T98" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S98))</f>
+        <f aca="false">1/(1+EXP(-S98))</f>
         <v>0.798025718292183</v>
       </c>
       <c r="U98" s="1" t="n">
-        <f aca="false"> 1/2 * (A98 - R98) ^ 2</f>
+        <f aca="false">1/2 * (A98 - R98) ^ 2</f>
         <v>0.0311930753644013</v>
       </c>
       <c r="V98" s="1" t="n">
@@ -11262,7 +11478,7 @@
         <v>0.0184270624186161</v>
       </c>
       <c r="W98" s="1" t="n">
-        <f aca="false"> (U98+V98)</f>
+        <f aca="false">(U98+V98)</f>
         <v>0.0496201377830173</v>
       </c>
       <c r="X98" s="1" t="n">
@@ -11331,16 +11547,16 @@
         <f aca="false">(E99*C99 + F99 * D99)</f>
         <v>0.0349338239789325</v>
       </c>
-      <c r="J99" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I99))</f>
+      <c r="J99" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I99))</f>
         <v>0.508732567930971</v>
       </c>
       <c r="K99" s="1" t="n">
         <f aca="false">(G99 * C99 + H99 * D99)</f>
         <v>0.0497995802406635</v>
       </c>
-      <c r="L99" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K99))</f>
+      <c r="L99" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K99))</f>
         <v>0.512447322721667</v>
       </c>
       <c r="M99" s="1" t="n">
@@ -11364,7 +11580,7 @@
         <v>-1.05974617117534</v>
       </c>
       <c r="R99" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q99))</f>
+        <f aca="false">1/(1+EXP(-Q99))</f>
         <v>0.257357964703532</v>
       </c>
       <c r="S99" s="1" t="n">
@@ -11372,11 +11588,11 @@
         <v>1.382162237256</v>
       </c>
       <c r="T99" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S99))</f>
+        <f aca="false">1/(1+EXP(-S99))</f>
         <v>0.799338040534108</v>
       </c>
       <c r="U99" s="1" t="n">
-        <f aca="false"> 1/2 * (A99 - R99) ^ 2</f>
+        <f aca="false">1/2 * (A99 - R99) ^ 2</f>
         <v>0.0305929813511368</v>
       </c>
       <c r="V99" s="1" t="n">
@@ -11384,7 +11600,7 @@
         <v>0.0181759913936868</v>
       </c>
       <c r="W99" s="1" t="n">
-        <f aca="false"> (U99+V99)</f>
+        <f aca="false">(U99+V99)</f>
         <v>0.0487689727448236</v>
       </c>
       <c r="X99" s="1" t="n">
@@ -11453,16 +11669,16 @@
         <f aca="false">(E100*C100 + F100 * D100)</f>
         <v>0.0350752267690157</v>
       </c>
-      <c r="J100" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I100))</f>
+      <c r="J100" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I100))</f>
         <v>0.508767907801737</v>
       </c>
       <c r="K100" s="1" t="n">
         <f aca="false">(G100 * C100 + H100 * D100)</f>
         <v>0.0499407154076424</v>
       </c>
-      <c r="L100" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K100))</f>
+      <c r="L100" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K100))</f>
         <v>0.51248258458451</v>
       </c>
       <c r="M100" s="1" t="n">
@@ -11486,7 +11702,7 @@
         <v>-1.07214547890793</v>
       </c>
       <c r="R100" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q100))</f>
+        <f aca="false">1/(1+EXP(-Q100))</f>
         <v>0.254995287568289</v>
       </c>
       <c r="S100" s="1" t="n">
@@ -11494,11 +11710,11 @@
         <v>1.39023111940009</v>
       </c>
       <c r="T100" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S100))</f>
+        <f aca="false">1/(1+EXP(-S100))</f>
         <v>0.800629137483638</v>
       </c>
       <c r="U100" s="1" t="n">
-        <f aca="false"> 1/2 * (A100 - R100) ^ 2</f>
+        <f aca="false">1/2 * (A100 - R100) ^ 2</f>
         <v>0.0300113454653344</v>
       </c>
       <c r="V100" s="1" t="n">
@@ -11506,7 +11722,7 @@
         <v>0.0179306617850955</v>
       </c>
       <c r="W100" s="1" t="n">
-        <f aca="false"> (U100+V100)</f>
+        <f aca="false">(U100+V100)</f>
         <v>0.0479420072504299</v>
       </c>
       <c r="X100" s="1" t="n">
@@ -11575,16 +11791,16 @@
         <f aca="false">(E101*C101 + F101 * D101)</f>
         <v>0.0352159261925678</v>
       </c>
-      <c r="J101" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I101))</f>
+      <c r="J101" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I101))</f>
         <v>0.50880307179775</v>
       </c>
       <c r="K101" s="1" t="n">
         <f aca="false">(G101 * C101 + H101 * D101)</f>
         <v>0.0500811703956652</v>
       </c>
-      <c r="L101" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K101))</f>
+      <c r="L101" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K101))</f>
         <v>0.512517676384952</v>
       </c>
       <c r="M101" s="1" t="n">
@@ -11608,7 +11824,7 @@
         <v>-1.08435562034895</v>
       </c>
       <c r="R101" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q101))</f>
+        <f aca="false">1/(1+EXP(-Q101))</f>
         <v>0.252682641253825</v>
       </c>
       <c r="S101" s="1" t="n">
@@ -11616,11 +11832,11 @@
         <v>1.39820893098856</v>
       </c>
       <c r="T101" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S101))</f>
+        <f aca="false">1/(1+EXP(-S101))</f>
         <v>0.801899519122218</v>
       </c>
       <c r="U101" s="1" t="n">
-        <f aca="false"> 1/2 * (A101 - R101) ^ 2</f>
+        <f aca="false">1/2 * (A101 - R101) ^ 2</f>
         <v>0.0294474321829664</v>
       </c>
       <c r="V101" s="1" t="n">
@@ -11628,7 +11844,7 @@
         <v>0.0176908954532264</v>
       </c>
       <c r="W101" s="1" t="n">
-        <f aca="false"> (U101+V101)</f>
+        <f aca="false">(U101+V101)</f>
         <v>0.0471383276361928</v>
       </c>
       <c r="X101" s="1" t="n">
@@ -11697,16 +11913,16 @@
         <f aca="false">(E102*C102 + F102 * D102)</f>
         <v>0.0353559140316853</v>
       </c>
-      <c r="J102" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I102))</f>
+      <c r="J102" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I102))</f>
         <v>0.50883805786613</v>
       </c>
       <c r="K102" s="1" t="n">
         <f aca="false">(G102 * C102 + H102 * D102)</f>
         <v>0.0502209361036717</v>
       </c>
-      <c r="L102" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K102))</f>
+      <c r="L102" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K102))</f>
         <v>0.512552595850604</v>
       </c>
       <c r="M102" s="1" t="n">
@@ -11730,7 +11946,7 @@
         <v>-1.09638125205897</v>
       </c>
       <c r="R102" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q102))</f>
+        <f aca="false">1/(1+EXP(-Q102))</f>
         <v>0.250418552642168</v>
       </c>
       <c r="S102" s="1" t="n">
@@ -11738,11 +11954,11 @@
         <v>1.40609745360546</v>
       </c>
       <c r="T102" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S102))</f>
+        <f aca="false">1/(1+EXP(-S102))</f>
         <v>0.803149679845791</v>
       </c>
       <c r="U102" s="1" t="n">
-        <f aca="false"> 1/2 * (A102 - R102) ^ 2</f>
+        <f aca="false">1/2 * (A102 - R102) ^ 2</f>
         <v>0.0289005402272773</v>
       </c>
       <c r="V102" s="1" t="n">
@@ -11750,7 +11966,7 @@
         <v>0.0174565210708652</v>
       </c>
       <c r="W102" s="1" t="n">
-        <f aca="false"> (U102+V102)</f>
+        <f aca="false">(U102+V102)</f>
         <v>0.0463570612981425</v>
       </c>
       <c r="X102" s="1" t="n">
@@ -11819,16 +12035,16 @@
         <f aca="false">(E103*C103 + F103 * D103)</f>
         <v>0.0354951831688536</v>
       </c>
-      <c r="J103" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I103))</f>
+      <c r="J103" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I103))</f>
         <v>0.508872864229035</v>
       </c>
       <c r="K103" s="1" t="n">
         <f aca="false">(G103 * C103 + H103 * D103)</f>
         <v>0.0503600045657082</v>
       </c>
-      <c r="L103" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K103))</f>
+      <c r="L103" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K103))</f>
         <v>0.512587340992711</v>
       </c>
       <c r="M103" s="1" t="n">
@@ -11852,7 +12068,7 @@
         <v>-1.10822688993581</v>
       </c>
       <c r="R103" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q103))</f>
+        <f aca="false">1/(1+EXP(-Q103))</f>
         <v>0.248201598843561</v>
       </c>
       <c r="S103" s="1" t="n">
@@ -11860,11 +12076,11 @@
         <v>1.41389842176678</v>
       </c>
       <c r="T103" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S103))</f>
+        <f aca="false">1/(1+EXP(-S103))</f>
         <v>0.804380099020824</v>
       </c>
       <c r="U103" s="1" t="n">
-        <f aca="false"> 1/2 * (A103 - R103) ^ 2</f>
+        <f aca="false">1/2 * (A103 - R103) ^ 2</f>
         <v>0.0283700008458143</v>
       </c>
       <c r="V103" s="1" t="n">
@@ -11872,7 +12088,7 @@
         <v>0.0172273738197596</v>
       </c>
       <c r="W103" s="1" t="n">
-        <f aca="false"> (U103+V103)</f>
+        <f aca="false">(U103+V103)</f>
         <v>0.0455973746655739</v>
       </c>
       <c r="X103" s="1" t="n">
@@ -11941,16 +12157,16 @@
         <f aca="false">(E104*C104 + F104 * D104)</f>
         <v>0.035633727507339</v>
       </c>
-      <c r="J104" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I104))</f>
+      <c r="J104" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I104))</f>
         <v>0.508907489363757</v>
       </c>
       <c r="K104" s="1" t="n">
         <f aca="false">(G104 * C104 + H104 * D104)</f>
         <v>0.0504983688699686</v>
       </c>
-      <c r="L104" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K104))</f>
+      <c r="L104" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K104))</f>
         <v>0.512621910085914</v>
       </c>
       <c r="M104" s="1" t="n">
@@ -11974,7 +12190,7 @@
         <v>-1.1198969134348</v>
       </c>
       <c r="R104" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q104))</f>
+        <f aca="false">1/(1+EXP(-Q104))</f>
         <v>0.246030405551047</v>
       </c>
       <c r="S104" s="1" t="n">
@@ -11982,11 +12198,11 @@
         <v>1.42161352442002</v>
       </c>
       <c r="T104" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S104))</f>
+        <f aca="false">1/(1+EXP(-S104))</f>
         <v>0.8055912415187</v>
       </c>
       <c r="U104" s="1" t="n">
-        <f aca="false"> 1/2 * (A104 - R104) ^ 2</f>
+        <f aca="false">1/2 * (A104 - R104) ^ 2</f>
         <v>0.0278551761722958</v>
       </c>
       <c r="V104" s="1" t="n">
@@ -11994,7 +12210,7 @@
         <v>0.0170032951023072</v>
       </c>
       <c r="W104" s="1" t="n">
-        <f aca="false"> (U104+V104)</f>
+        <f aca="false">(U104+V104)</f>
         <v>0.044858471274603</v>
       </c>
       <c r="X104" s="1" t="n">
@@ -12063,16 +12279,16 @@
         <f aca="false">(E105*C105 + F105 * D105)</f>
         <v>0.0357715418969579</v>
       </c>
-      <c r="J105" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I105))</f>
+      <c r="J105" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I105))</f>
         <v>0.508941931984168</v>
       </c>
       <c r="K105" s="1" t="n">
         <f aca="false">(G105 * C105 + H105 * D105)</f>
         <v>0.0506360230832519</v>
       </c>
-      <c r="L105" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K105))</f>
+      <c r="L105" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K105))</f>
         <v>0.512656301649374</v>
       </c>
       <c r="M105" s="1" t="n">
@@ -12096,7 +12312,7 @@
         <v>-1.13139556972946</v>
       </c>
       <c r="R105" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q105))</f>
+        <f aca="false">1/(1+EXP(-Q105))</f>
         <v>0.2439036454191</v>
       </c>
       <c r="S105" s="1" t="n">
@@ -12104,11 +12320,11 @@
         <v>1.42924440639032</v>
       </c>
       <c r="T105" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S105))</f>
+        <f aca="false">1/(1+EXP(-S105))</f>
         <v>0.806783558229314</v>
       </c>
       <c r="U105" s="1" t="n">
-        <f aca="false"> 1/2 * (A105 - R105) ^ 2</f>
+        <f aca="false">1/2 * (A105 - R105) ^ 2</f>
         <v>0.0273554576701719</v>
       </c>
       <c r="V105" s="1" t="n">
@@ -12116,7 +12332,7 @@
         <v>0.0167841322675555</v>
       </c>
       <c r="W105" s="1" t="n">
-        <f aca="false"> (U105+V105)</f>
+        <f aca="false">(U105+V105)</f>
         <v>0.0441395899377274</v>
       </c>
       <c r="X105" s="1" t="n">
@@ -12185,16 +12401,16 @@
         <f aca="false">(E106*C106 + F106 * D106)</f>
         <v>0.0359086220648728</v>
       </c>
-      <c r="J106" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I106))</f>
+      <c r="J106" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I106))</f>
         <v>0.508976191023424</v>
       </c>
       <c r="K106" s="1" t="n">
         <f aca="false">(G106 * C106 + H106 * D106)</f>
         <v>0.0507729621804881</v>
       </c>
-      <c r="L106" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K106))</f>
+      <c r="L106" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K106))</f>
         <v>0.512690514429159</v>
       </c>
       <c r="M106" s="1" t="n">
@@ -12218,7 +12434,7 @@
         <v>-1.14272697780303</v>
       </c>
       <c r="R106" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q106))</f>
+        <f aca="false">1/(1+EXP(-Q106))</f>
         <v>0.24182003647077</v>
       </c>
       <c r="S106" s="1" t="n">
@@ -12226,11 +12442,11 @@
         <v>1.43679266977538</v>
       </c>
       <c r="T106" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S106))</f>
+        <f aca="false">1/(1+EXP(-S106))</f>
         <v>0.807957486554699</v>
       </c>
       <c r="U106" s="1" t="n">
-        <f aca="false"> 1/2 * (A106 - R106) ^ 2</f>
+        <f aca="false">1/2 * (A106 - R106) ^ 2</f>
         <v>0.0268702646546546</v>
       </c>
       <c r="V106" s="1" t="n">
@@ -12238,7 +12454,7 @@
         <v>0.0165697383507413</v>
       </c>
       <c r="W106" s="1" t="n">
-        <f aca="false"> (U106+V106)</f>
+        <f aca="false">(U106+V106)</f>
         <v>0.0434400030053959</v>
       </c>
       <c r="X106" s="1" t="n">
@@ -12307,16 +12523,16 @@
         <f aca="false">(E107*C107 + F107 * D107)</f>
         <v>0.0360449645510816</v>
       </c>
-      <c r="J107" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I107))</f>
+      <c r="J107" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I107))</f>
         <v>0.509010265617834</v>
       </c>
       <c r="K107" s="1" t="n">
         <f aca="false">(G107 * C107 + H107 * D107)</f>
         <v>0.050909181979</v>
       </c>
-      <c r="L107" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K107))</f>
+      <c r="L107" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K107))</f>
         <v>0.512724547381819</v>
       </c>
       <c r="M107" s="1" t="n">
@@ -12340,7 +12556,7 @@
         <v>-1.15389513246274</v>
       </c>
       <c r="R107" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q107))</f>
+        <f aca="false">1/(1+EXP(-Q107))</f>
         <v>0.239778340536955</v>
       </c>
       <c r="S107" s="1" t="n">
@@ -12348,11 +12564,11 @@
         <v>1.44425987529084</v>
       </c>
       <c r="T107" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S107))</f>
+        <f aca="false">1/(1+EXP(-S107))</f>
         <v>0.809113450883461</v>
       </c>
       <c r="U107" s="1" t="n">
-        <f aca="false"> 1/2 * (A107 - R107) ^ 2</f>
+        <f aca="false">1/2 * (A107 - R107) ^ 2</f>
         <v>0.0263990428899585</v>
       </c>
       <c r="V107" s="1" t="n">
@@ -12360,7 +12576,7 @@
         <v>0.0163599718256451</v>
       </c>
       <c r="W107" s="1" t="n">
-        <f aca="false"> (U107+V107)</f>
+        <f aca="false">(U107+V107)</f>
         <v>0.0427590147156036</v>
       </c>
       <c r="X107" s="1" t="n">
@@ -12429,16 +12645,16 @@
         <f aca="false">(E108*C108 + F108 * D108)</f>
         <v>0.0361805666482922</v>
       </c>
-      <c r="J108" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I108))</f>
+      <c r="J108" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I108))</f>
         <v>0.509044155091837</v>
       </c>
       <c r="K108" s="1" t="n">
         <f aca="false">(G108 * C108 + H108 * D108)</f>
         <v>0.0510446790771906</v>
       </c>
-      <c r="L108" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K108))</f>
+      <c r="L108" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K108))</f>
         <v>0.512758399659057</v>
       </c>
       <c r="M108" s="1" t="n">
@@ -12462,7 +12678,7 @@
         <v>-1.16490390827055</v>
       </c>
       <c r="R108" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q108))</f>
+        <f aca="false">1/(1+EXP(-Q108))</f>
         <v>0.237777361730686</v>
       </c>
       <c r="S108" s="1" t="n">
@@ -12470,11 +12686,11 @@
         <v>1.45164754356804</v>
       </c>
       <c r="T108" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S108))</f>
+        <f aca="false">1/(1+EXP(-S108))</f>
         <v>0.8102518630468</v>
       </c>
       <c r="U108" s="1" t="n">
-        <f aca="false"> 1/2 * (A108 - R108) ^ 2</f>
+        <f aca="false">1/2 * (A108 - R108) ^ 2</f>
         <v>0.0259412632584958</v>
       </c>
       <c r="V108" s="1" t="n">
@@ -12482,7 +12698,7 @@
         <v>0.0161546963690732</v>
       </c>
       <c r="W108" s="1" t="n">
-        <f aca="false"> (U108+V108)</f>
+        <f aca="false">(U108+V108)</f>
         <v>0.042095959627569</v>
       </c>
       <c r="X108" s="1" t="n">
@@ -12551,16 +12767,16 @@
         <f aca="false">(E109*C109 + F109 * D109)</f>
         <v>0.0363154263458877</v>
       </c>
-      <c r="J109" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I109))</f>
+      <c r="J109" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I109))</f>
         <v>0.509077858943993</v>
       </c>
       <c r="K109" s="1" t="n">
         <f aca="false">(G109 * C109 + H109 * D109)</f>
         <v>0.0511794507973639</v>
       </c>
-      <c r="L109" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K109))</f>
+      <c r="L109" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K109))</f>
         <v>0.512792070593449</v>
       </c>
       <c r="M109" s="1" t="n">
@@ -12584,7 +12800,7 @@
         <v>-1.1757570633853</v>
       </c>
       <c r="R109" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q109))</f>
+        <f aca="false">1/(1+EXP(-Q109))</f>
         <v>0.235815944958694</v>
       </c>
       <c r="S109" s="1" t="n">
@@ -12592,11 +12808,11 @@
         <v>1.45895715640585</v>
       </c>
       <c r="T109" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S109))</f>
+        <f aca="false">1/(1+EXP(-S109))</f>
         <v>0.811373122756848</v>
       </c>
       <c r="U109" s="1" t="n">
-        <f aca="false"> 1/2 * (A109 - R109) ^ 2</f>
+        <f aca="false">1/2 * (A109 - R109) ^ 2</f>
         <v>0.0254964204987939</v>
       </c>
       <c r="V109" s="1" t="n">
@@ -12604,7 +12820,7 @@
         <v>0.0159537806368201</v>
       </c>
       <c r="W109" s="1" t="n">
-        <f aca="false"> (U109+V109)</f>
+        <f aca="false">(U109+V109)</f>
         <v>0.0414502011356139</v>
       </c>
       <c r="X109" s="1" t="n">
@@ -12673,16 +12889,16 @@
         <f aca="false">(E110*C110 + F110 * D110)</f>
         <v>0.0364495422777105</v>
       </c>
-      <c r="J110" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I110))</f>
+      <c r="J110" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I110))</f>
         <v>0.509111376833929</v>
       </c>
       <c r="K110" s="1" t="n">
         <f aca="false">(G110 * C110 + H110 * D110)</f>
         <v>0.0513134951324053</v>
       </c>
-      <c r="L110" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K110))</f>
+      <c r="L110" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K110))</f>
         <v>0.512825559685113</v>
       </c>
       <c r="M110" s="1" t="n">
@@ -12706,7 +12922,7 @@
         <v>-1.18645824331227</v>
       </c>
       <c r="R110" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q110))</f>
+        <f aca="false">1/(1+EXP(-Q110))</f>
         <v>0.233892974471969</v>
       </c>
       <c r="S110" s="1" t="n">
@@ -12714,11 +12930,11 @@
         <v>1.46619015797847</v>
       </c>
       <c r="T110" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S110))</f>
+        <f aca="false">1/(1+EXP(-S110))</f>
         <v>0.812477618028025</v>
       </c>
       <c r="U110" s="1" t="n">
-        <f aca="false"> 1/2 * (A110 - R110) ^ 2</f>
+        <f aca="false">1/2 * (A110 - R110) ^ 2</f>
         <v>0.0250640320089529</v>
       </c>
       <c r="V110" s="1" t="n">
@@ -12726,7 +12942,7 @@
         <v>0.0157570980505018</v>
       </c>
       <c r="W110" s="1" t="n">
-        <f aca="false"> (U110+V110)</f>
+        <f aca="false">(U110+V110)</f>
         <v>0.0408211300594547</v>
       </c>
       <c r="X110" s="1" t="n">
@@ -12795,16 +13011,16 @@
         <f aca="false">(E111*C111 + F111 * D111)</f>
         <v>0.0365829136734091</v>
       </c>
-      <c r="J111" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I111))</f>
+      <c r="J111" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I111))</f>
         <v>0.509144708570182</v>
       </c>
       <c r="K111" s="1" t="n">
         <f aca="false">(G111 * C111 + H111 * D111)</f>
         <v>0.0514468106960659</v>
       </c>
-      <c r="L111" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K111))</f>
+      <c r="L111" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K111))</f>
         <v>0.512858866589288</v>
       </c>
       <c r="M111" s="1" t="n">
@@ -12828,7 +13044,7 @@
         <v>-1.19701098455741</v>
       </c>
       <c r="R111" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q111))</f>
+        <f aca="false">1/(1+EXP(-Q111))</f>
         <v>0.232007372456554</v>
       </c>
       <c r="S111" s="1" t="n">
@@ -12836,11 +13052,11 @@
         <v>1.47334795600048</v>
       </c>
       <c r="T111" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S111))</f>
+        <f aca="false">1/(1+EXP(-S111))</f>
         <v>0.813565725582115</v>
       </c>
       <c r="U111" s="1" t="n">
-        <f aca="false"> 1/2 * (A111 - R111) ^ 2</f>
+        <f aca="false">1/2 * (A111 - R111) ^ 2</f>
         <v>0.0246436367125315</v>
       </c>
       <c r="V111" s="1" t="n">
@@ -12848,7 +13064,7 @@
         <v>0.0155645265946827</v>
       </c>
       <c r="W111" s="1" t="n">
-        <f aca="false"> (U111+V111)</f>
+        <f aca="false">(U111+V111)</f>
         <v>0.0402081633072142</v>
       </c>
       <c r="X111" s="1" t="n">
@@ -12917,16 +13133,16 @@
         <f aca="false">(E112*C112 + F112 * D112)</f>
         <v>0.0367155403131072</v>
       </c>
-      <c r="J112" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-I112))</f>
+      <c r="J112" s="4" t="n">
+        <f aca="false">1/(1+EXP(-I112))</f>
         <v>0.509177854098863</v>
       </c>
       <c r="K112" s="1" t="n">
         <f aca="false">(G112 * C112 + H112 * D112)</f>
         <v>0.0515793966766088</v>
       </c>
-      <c r="L112" s="5" t="n">
-        <f aca="false"> 1/(1+EXP(-K112))</f>
+      <c r="L112" s="4" t="n">
+        <f aca="false">1/(1+EXP(-K112))</f>
         <v>0.512891991104749</v>
       </c>
       <c r="M112" s="1" t="n">
@@ -12950,7 +13166,7 @@
         <v>-1.20741871818405</v>
       </c>
       <c r="R112" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-Q112))</f>
+        <f aca="false">1/(1+EXP(-Q112))</f>
         <v>0.230158097665407</v>
       </c>
       <c r="S112" s="1" t="n">
@@ -12958,11 +13174,11 @@
         <v>1.48043192285117</v>
       </c>
       <c r="T112" s="1" t="n">
-        <f aca="false"> 1/(1+EXP(-S112))</f>
+        <f aca="false">1/(1+EXP(-S112))</f>
         <v>0.8146378112377</v>
       </c>
       <c r="U112" s="1" t="n">
-        <f aca="false"> 1/2 * (A112 - R112) ^ 2</f>
+        <f aca="false">1/2 * (A112 - R112) ^ 2</f>
         <v>0.0242347939838255</v>
       </c>
       <c r="V112" s="1" t="n">
@@ -12970,7 +13186,7 @@
         <v>0.0153759486237523</v>
       </c>
       <c r="W112" s="1" t="n">
-        <f aca="false"> (U112+V112)</f>
+        <f aca="false">(U112+V112)</f>
         <v>0.0396107426075778</v>
       </c>
       <c r="X112" s="1" t="n">

--- a/session_2/Assignment_2_backpropagation.xlsx
+++ b/session_2/Assignment_2_backpropagation.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">Targets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outputs</t>
   </si>
   <si>
     <r>
@@ -428,7 +425,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">h1 =w1*i1 + w2*i2</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">h1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> =w1*i1 + w2*i2</t>
+    </r>
   </si>
   <si>
     <r>
@@ -452,19 +467,73 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">h2 =w3*i1 + w4*i2</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">h2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> =w3*i1 + w4*i2</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">dE_t/dw1 = (dE1/da_h1 + dE2/da_h1) * da_h1/dh1 * dh1/dw1</t>
   </si>
   <si>
-    <t xml:space="preserve">a_h1 = sigmoid(h1) = 1/(1 + exp(-h1))</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">a_h1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = sigmoid(h1) = 1/(1 + exp(-h1))</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">dE_t/dw1 = (dE_t/da_h1) * da_h1/dh1 * dh1/dw1</t>
   </si>
   <si>
-    <t xml:space="preserve">a_h2 = sigmoid(h2)= 1/(1 + exp(-h2))</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">a_h2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = sigmoid(h2)= 1/(1 + exp(-h2))</t>
+    </r>
   </si>
   <si>
     <r>
@@ -488,7 +557,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">o1 = w5 * a_h1 + w6 * a_h2</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">o1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = w5 * a_h1 + w6 * a_h2</t>
+    </r>
   </si>
   <si>
     <r>
@@ -512,7 +599,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">o1 = w7 * a_h1 + w8 * a_h2</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">o1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = w7 * a_h1 + w8 * a_h2</t>
+    </r>
   </si>
   <si>
     <r>
@@ -536,7 +641,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">a_o1 = sigmoid(o1) = 1/(1 + exp(-o1))</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">a_o1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = sigmoid(o1) = 1/(1 + exp(-o1))</t>
+    </r>
   </si>
   <si>
     <r>
@@ -560,7 +683,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">a_o2 = sigmoid(o2) = 1/(1 + exp(-02))</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">a_o2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = sigmoid(o2) = 1/(1 + exp(-02))</t>
+    </r>
   </si>
   <si>
     <r>
@@ -584,7 +725,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">E1 = (1/2) * (t1 – a_o1) ^ 2</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">E1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = (1/2) * (t1 – a_o1) ^ 2</t>
+    </r>
   </si>
   <si>
     <r>
@@ -608,7 +767,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">E2 = (1/2) * (t2 – a_o2) ^ 2</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">E2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = (1/2) * (t2 – a_o2) ^ 2</t>
+    </r>
   </si>
   <si>
     <r>
@@ -632,7 +809,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">E_total = E1 + E2</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">E_total </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">= E1 + E2</t>
+    </r>
   </si>
   <si>
     <r>
@@ -947,7 +1142,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1245,11 +1440,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="77984622"/>
-        <c:axId val="7153234"/>
+        <c:axId val="46619109"/>
+        <c:axId val="16764557"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77984622"/>
+        <c:axId val="46619109"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,14 +1472,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7153234"/>
+        <c:crossAx val="16764557"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7153234"/>
+        <c:axId val="16764557"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,7 +1516,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77984622"/>
+        <c:crossAx val="46619109"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3371,7 +3566,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>10800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3401,7 +3596,7 @@
   <dimension ref="A2:AE112"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34:AE34"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3435,9 +3630,6 @@
       <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M3" s="1" t="n">
@@ -3449,171 +3641,171 @@
         <v>0.99</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T6" s="0"/>
       <c r="U6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T7" s="0"/>
       <c r="U7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T16" s="0"/>
       <c r="U16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T17" s="0"/>
       <c r="U17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T18" s="0"/>
       <c r="U18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T19" s="0"/>
       <c r="U19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="T21" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T21" s="2" t="s">
+    <row r="22" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="T22" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T22" s="1" t="s">
+    <row r="23" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1" t="s">
+      <c r="T23" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T24" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T26" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T28" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T29" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T30" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T31" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>0.5</v>
@@ -3621,97 +3813,97 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="R34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="S34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="T34" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="U34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="U34" s="3" t="s">
+      <c r="V34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="V34" s="3" t="s">
+      <c r="W34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W34" s="3" t="s">
+      <c r="X34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="X34" s="3" t="s">
+      <c r="Y34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Y34" s="3" t="s">
+      <c r="Z34" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z34" s="3" t="s">
+      <c r="AA34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA34" s="3" t="s">
+      <c r="AB34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AB34" s="3" t="s">
+      <c r="AC34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AC34" s="3" t="s">
+      <c r="AD34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AD34" s="3" t="s">
+      <c r="AE34" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="AE34" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
